--- a/work/23_aichi2.xlsx
+++ b/work/23_aichi2.xlsx
@@ -7873,6 +7873,416 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">名古屋市発表2739</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9月20日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5053と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1892</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1893</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1894</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5020と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1895</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5012と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1896</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1897</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1898</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1899</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1900</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1901</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1902</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊田市発表225</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表161</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表162</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表163</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">静岡県</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊橋市発表69</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊橋市発表70</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊橋市発表71</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊橋市発表72</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5002と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2740</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2741</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5000と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2742</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2743</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2744</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2745</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2746</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2747</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">兵庫県事例と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2748</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2749</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2750</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2751</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2752</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2753</t>
     </r>
   </si>
 </sst>
@@ -8308,7 +8718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G540"/>
+  <dimension ref="A1:G573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18758,7 +19168,9 @@
       <c r="E520" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F520" s="12"/>
+      <c r="F520" s="13" t="s">
+        <v>703</v>
+      </c>
       <c r="G520" s="13" t="s">
         <v>761</v>
       </c>
@@ -19165,6 +19577,677 @@
       <c r="F540" s="12"/>
       <c r="G540" s="13" t="s">
         <v>785</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A541" s="16">
+        <v>5083</v>
+      </c>
+      <c r="B541" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C541" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D541" s="12"/>
+      <c r="E541" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F541" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="G541" s="13" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A542" s="16">
+        <v>5084</v>
+      </c>
+      <c r="B542" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C542" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D542" s="12"/>
+      <c r="E542" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F542" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="G542" s="13" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A543" s="16">
+        <v>5085</v>
+      </c>
+      <c r="B543" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C543" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D543" s="12"/>
+      <c r="E543" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F543" s="12"/>
+      <c r="G543" s="13" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A544" s="16">
+        <v>5086</v>
+      </c>
+      <c r="B544" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C544" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D544" s="12"/>
+      <c r="E544" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="F544" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="G544" s="13" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A545" s="16">
+        <v>5087</v>
+      </c>
+      <c r="B545" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C545" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D545" s="12"/>
+      <c r="E545" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F545" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G545" s="13" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A546" s="16">
+        <v>5088</v>
+      </c>
+      <c r="B546" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C546" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D546" s="12"/>
+      <c r="E546" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F546" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="G546" s="13" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A547" s="16">
+        <v>5089</v>
+      </c>
+      <c r="B547" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C547" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D547" s="12"/>
+      <c r="E547" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F547" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="G547" s="13" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A548" s="16">
+        <v>5090</v>
+      </c>
+      <c r="B548" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C548" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D548" s="12"/>
+      <c r="E548" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F548" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="G548" s="13" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A549" s="16">
+        <v>5091</v>
+      </c>
+      <c r="B549" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C549" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D549" s="12"/>
+      <c r="E549" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F549" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="G549" s="13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A550" s="16">
+        <v>5092</v>
+      </c>
+      <c r="B550" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C550" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D550" s="12"/>
+      <c r="E550" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F550" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="G550" s="13" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A551" s="16">
+        <v>5093</v>
+      </c>
+      <c r="B551" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C551" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D551" s="12"/>
+      <c r="E551" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F551" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="G551" s="13" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A552" s="16">
+        <v>5094</v>
+      </c>
+      <c r="B552" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C552" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D552" s="12"/>
+      <c r="E552" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F552" s="12"/>
+      <c r="G552" s="13" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A553" s="16">
+        <v>5095</v>
+      </c>
+      <c r="B553" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C553" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D553" s="12"/>
+      <c r="E553" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F553" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="G553" s="13" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A554" s="16">
+        <v>5096</v>
+      </c>
+      <c r="B554" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C554" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D554" s="12"/>
+      <c r="E554" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F554" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="G554" s="13" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A555" s="16">
+        <v>5097</v>
+      </c>
+      <c r="B555" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C555" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D555" s="12"/>
+      <c r="E555" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F555" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="G555" s="13" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A556" s="16">
+        <v>5098</v>
+      </c>
+      <c r="B556" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C556" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D556" s="12"/>
+      <c r="E556" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="F556" s="12"/>
+      <c r="G556" s="13" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A557" s="16">
+        <v>5099</v>
+      </c>
+      <c r="B557" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C557" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D557" s="12"/>
+      <c r="E557" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="F557" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="G557" s="13" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A558" s="16">
+        <v>5100</v>
+      </c>
+      <c r="B558" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C558" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D558" s="12"/>
+      <c r="E558" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="F558" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="G558" s="13" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A559" s="16">
+        <v>5101</v>
+      </c>
+      <c r="B559" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C559" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D559" s="12"/>
+      <c r="E559" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="F559" s="12"/>
+      <c r="G559" s="13" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A560" s="16">
+        <v>5102</v>
+      </c>
+      <c r="B560" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C560" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D560" s="12"/>
+      <c r="E560" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F560" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="G560" s="13" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A561" s="16">
+        <v>5103</v>
+      </c>
+      <c r="B561" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C561" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D561" s="12"/>
+      <c r="E561" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F561" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="G561" s="13" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A562" s="16">
+        <v>5104</v>
+      </c>
+      <c r="B562" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C562" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D562" s="12"/>
+      <c r="E562" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F562" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="G562" s="13" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A563" s="16">
+        <v>5105</v>
+      </c>
+      <c r="B563" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C563" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D563" s="12"/>
+      <c r="E563" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F563" s="12"/>
+      <c r="G563" s="13" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A564" s="16">
+        <v>5106</v>
+      </c>
+      <c r="B564" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C564" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D564" s="12"/>
+      <c r="E564" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F564" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="G564" s="13" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A565" s="16">
+        <v>5107</v>
+      </c>
+      <c r="B565" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C565" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D565" s="12"/>
+      <c r="E565" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F565" s="12"/>
+      <c r="G565" s="13" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A566" s="16">
+        <v>5108</v>
+      </c>
+      <c r="B566" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C566" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D566" s="12"/>
+      <c r="E566" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F566" s="12"/>
+      <c r="G566" s="13" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A567" s="16">
+        <v>5109</v>
+      </c>
+      <c r="B567" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C567" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D567" s="12"/>
+      <c r="E567" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F567" s="12"/>
+      <c r="G567" s="13" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A568" s="16">
+        <v>5110</v>
+      </c>
+      <c r="B568" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C568" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D568" s="12"/>
+      <c r="E568" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F568" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="G568" s="13" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A569" s="16">
+        <v>5111</v>
+      </c>
+      <c r="B569" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C569" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D569" s="12"/>
+      <c r="E569" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F569" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="G569" s="13" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A570" s="16">
+        <v>5112</v>
+      </c>
+      <c r="B570" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C570" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D570" s="12"/>
+      <c r="E570" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F570" s="12"/>
+      <c r="G570" s="13" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A571" s="16">
+        <v>5113</v>
+      </c>
+      <c r="B571" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C571" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D571" s="12"/>
+      <c r="E571" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F571" s="12"/>
+      <c r="G571" s="13" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A572" s="16">
+        <v>5114</v>
+      </c>
+      <c r="B572" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C572" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D572" s="12"/>
+      <c r="E572" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="F572" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G572" s="13" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" ht="25.50" customHeight="1">
+      <c r="A573" s="16">
+        <v>5115</v>
+      </c>
+      <c r="B573" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C573" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D573" s="12"/>
+      <c r="E573" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F573" s="12"/>
+      <c r="G573" s="13" t="s">
+        <v>826</v>
       </c>
     </row>
   </sheetData>

--- a/work/23_aichi2.xlsx
+++ b/work/23_aichi2.xlsx
@@ -32,7 +32,7 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">令和2年9月21日現在</t>
+      <t xml:space="preserve">令和2年9月22日現在</t>
     </r>
   </si>
   <si>
@@ -8513,6 +8513,146 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">名古屋市発表2764</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9月22日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1907</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岩倉市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5059と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1908</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5058と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1909</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5092と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1910</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表167</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表168</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2765</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2766</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2767</t>
     </r>
   </si>
 </sst>
@@ -8995,7 +9135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I591"/>
+  <dimension ref="A1:I600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9006,8 +9146,8 @@
     <col min="3" max="3" customWidth="1" width="16.666667"/>
     <col min="4" max="4" customWidth="1" width="10.666667"/>
     <col min="5" max="5" customWidth="1" width="18.888889"/>
-    <col min="6" max="6" customWidth="1" width="21.111111"/>
-    <col min="7" max="7" customWidth="1" width="4"/>
+    <col min="6" max="6" customWidth="1" width="21.333333"/>
+    <col min="7" max="7" customWidth="1" width="3.777778"/>
     <col min="8" max="8" customWidth="1" width="20.888889"/>
     <col min="9" max="9" customWidth="1" width="2.666667"/>
   </cols>
@@ -21206,7 +21346,7 @@
       <c r="B552" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C552" s="26" t="s">
+      <c r="C552" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D552" s="13"/>
@@ -21229,7 +21369,7 @@
       <c r="B553" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C553" s="26" t="s">
+      <c r="C553" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D553" s="13"/>
@@ -21252,7 +21392,7 @@
       <c r="B554" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C554" s="26" t="s">
+      <c r="C554" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D554" s="13"/>
@@ -21275,7 +21415,7 @@
       <c r="B555" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C555" s="26" t="s">
+      <c r="C555" s="12" t="s">
         <v>142</v>
       </c>
       <c r="D555" s="13"/>
@@ -21296,7 +21436,7 @@
       <c r="B556" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C556" s="26" t="s">
+      <c r="C556" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D556" s="13"/>
@@ -21319,7 +21459,7 @@
       <c r="B557" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C557" s="26" t="s">
+      <c r="C557" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D557" s="13"/>
@@ -21342,7 +21482,7 @@
       <c r="B558" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C558" s="26" t="s">
+      <c r="C558" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D558" s="13"/>
@@ -21363,7 +21503,7 @@
       <c r="B559" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C559" s="26" t="s">
+      <c r="C559" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D559" s="13"/>
@@ -21386,7 +21526,7 @@
       <c r="B560" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C560" s="26" t="s">
+      <c r="C560" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D560" s="13"/>
@@ -21409,7 +21549,7 @@
       <c r="B561" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C561" s="26" t="s">
+      <c r="C561" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D561" s="13"/>
@@ -21432,7 +21572,7 @@
       <c r="B562" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C562" s="26" t="s">
+      <c r="C562" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D562" s="13"/>
@@ -21453,7 +21593,7 @@
       <c r="B563" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C563" s="26" t="s">
+      <c r="C563" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D563" s="13"/>
@@ -21476,7 +21616,7 @@
       <c r="B564" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C564" s="26" t="s">
+      <c r="C564" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D564" s="13"/>
@@ -21497,7 +21637,7 @@
       <c r="B565" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C565" s="26" t="s">
+      <c r="C565" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D565" s="13"/>
@@ -21518,7 +21658,7 @@
       <c r="B566" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C566" s="26" t="s">
+      <c r="C566" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D566" s="13"/>
@@ -21539,7 +21679,7 @@
       <c r="B567" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C567" s="26" t="s">
+      <c r="C567" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D567" s="13"/>
@@ -21562,7 +21702,7 @@
       <c r="B568" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C568" s="26" t="s">
+      <c r="C568" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D568" s="13"/>
@@ -21585,7 +21725,7 @@
       <c r="B569" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C569" s="26" t="s">
+      <c r="C569" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D569" s="13"/>
@@ -21606,7 +21746,7 @@
       <c r="B570" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C570" s="26" t="s">
+      <c r="C570" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D570" s="13"/>
@@ -21627,7 +21767,7 @@
       <c r="B571" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C571" s="26" t="s">
+      <c r="C571" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D571" s="13"/>
@@ -21650,7 +21790,7 @@
       <c r="B572" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C572" s="26" t="s">
+      <c r="C572" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D572" s="13"/>
@@ -21671,7 +21811,7 @@
       <c r="B573" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C573" s="26" t="s">
+      <c r="C573" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D573" s="13"/>
@@ -21694,7 +21834,7 @@
       <c r="B574" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C574" s="26" t="s">
+      <c r="C574" s="12" t="s">
         <v>142</v>
       </c>
       <c r="D574" s="13"/>
@@ -21717,7 +21857,7 @@
       <c r="B575" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C575" s="26" t="s">
+      <c r="C575" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D575" s="13"/>
@@ -21740,7 +21880,7 @@
       <c r="B576" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C576" s="26" t="s">
+      <c r="C576" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D576" s="13"/>
@@ -21761,7 +21901,7 @@
       <c r="B577" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C577" s="26" t="s">
+      <c r="C577" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D577" s="13"/>
@@ -21784,7 +21924,7 @@
       <c r="B578" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C578" s="26" t="s">
+      <c r="C578" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D578" s="13"/>
@@ -21807,7 +21947,7 @@
       <c r="B579" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C579" s="26" t="s">
+      <c r="C579" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D579" s="13"/>
@@ -21828,7 +21968,7 @@
       <c r="B580" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C580" s="26" t="s">
+      <c r="C580" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D580" s="13"/>
@@ -21849,7 +21989,7 @@
       <c r="B581" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C581" s="26" t="s">
+      <c r="C581" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D581" s="13"/>
@@ -21870,7 +22010,7 @@
       <c r="B582" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C582" s="26" t="s">
+      <c r="C582" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D582" s="13"/>
@@ -21893,7 +22033,7 @@
       <c r="B583" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C583" s="26" t="s">
+      <c r="C583" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D583" s="13"/>
@@ -21916,7 +22056,7 @@
       <c r="B584" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C584" s="26" t="s">
+      <c r="C584" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D584" s="13"/>
@@ -21939,7 +22079,7 @@
       <c r="B585" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C585" s="26" t="s">
+      <c r="C585" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D585" s="13"/>
@@ -21962,7 +22102,7 @@
       <c r="B586" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C586" s="26" t="s">
+      <c r="C586" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D586" s="13"/>
@@ -21985,7 +22125,7 @@
       <c r="B587" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C587" s="26" t="s">
+      <c r="C587" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D587" s="13"/>
@@ -22008,7 +22148,7 @@
       <c r="B588" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C588" s="26" t="s">
+      <c r="C588" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D588" s="13"/>
@@ -22031,7 +22171,7 @@
       <c r="B589" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C589" s="26" t="s">
+      <c r="C589" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D589" s="13"/>
@@ -22052,7 +22192,7 @@
       <c r="B590" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C590" s="26" t="s">
+      <c r="C590" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D590" s="13"/>
@@ -22073,7 +22213,7 @@
       <c r="B591" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C591" s="26" t="s">
+      <c r="C591" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D591" s="13"/>
@@ -22087,8 +22227,209 @@
       </c>
       <c r="I591" s="0"/>
     </row>
+    <row r="592" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A592" s="25">
+        <v>5135</v>
+      </c>
+      <c r="B592" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C592" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D592" s="13"/>
+      <c r="E592" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F592" s="17"/>
+      <c r="G592" s="18"/>
+      <c r="H592" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="I592" s="0"/>
+    </row>
+    <row r="593" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A593" s="25">
+        <v>5136</v>
+      </c>
+      <c r="B593" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C593" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D593" s="13"/>
+      <c r="E593" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="F593" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="G593" s="16"/>
+      <c r="H593" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="I593" s="0"/>
+    </row>
+    <row r="594" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A594" s="25">
+        <v>5137</v>
+      </c>
+      <c r="B594" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C594" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D594" s="13"/>
+      <c r="E594" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F594" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="G594" s="16"/>
+      <c r="H594" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="I594" s="0"/>
+    </row>
+    <row r="595" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A595" s="25">
+        <v>5138</v>
+      </c>
+      <c r="B595" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C595" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D595" s="13"/>
+      <c r="E595" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F595" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="G595" s="16"/>
+      <c r="H595" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="I595" s="0"/>
+    </row>
+    <row r="596" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A596" s="25">
+        <v>5139</v>
+      </c>
+      <c r="B596" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C596" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D596" s="13"/>
+      <c r="E596" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F596" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="G596" s="16"/>
+      <c r="H596" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="I596" s="0"/>
+    </row>
+    <row r="597" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A597" s="25">
+        <v>5140</v>
+      </c>
+      <c r="B597" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C597" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D597" s="13"/>
+      <c r="E597" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F597" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="G597" s="16"/>
+      <c r="H597" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="I597" s="0"/>
+    </row>
+    <row r="598" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A598" s="25">
+        <v>5141</v>
+      </c>
+      <c r="B598" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C598" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D598" s="13"/>
+      <c r="E598" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F598" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="G598" s="16"/>
+      <c r="H598" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="I598" s="0"/>
+    </row>
+    <row r="599" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A599" s="25">
+        <v>5142</v>
+      </c>
+      <c r="B599" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C599" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D599" s="13"/>
+      <c r="E599" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F599" s="17"/>
+      <c r="G599" s="18"/>
+      <c r="H599" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="I599" s="0"/>
+    </row>
+    <row r="600" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A600" s="25">
+        <v>5143</v>
+      </c>
+      <c r="B600" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C600" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D600" s="13"/>
+      <c r="E600" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F600" s="17"/>
+      <c r="G600" s="18"/>
+      <c r="H600" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="I600" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="601">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="F2:G2"/>
@@ -22681,6 +23022,15 @@
     <mergeCell ref="F589:G589"/>
     <mergeCell ref="F590:G590"/>
     <mergeCell ref="F591:G591"/>
+    <mergeCell ref="F592:G592"/>
+    <mergeCell ref="F593:G593"/>
+    <mergeCell ref="F594:G594"/>
+    <mergeCell ref="F595:G595"/>
+    <mergeCell ref="F596:G596"/>
+    <mergeCell ref="F597:G597"/>
+    <mergeCell ref="F598:G598"/>
+    <mergeCell ref="F599:G599"/>
+    <mergeCell ref="F600:G600"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work/23_aichi2.xlsx
+++ b/work/23_aichi2.xlsx
@@ -32,7 +32,7 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">令和2年9月22日現在</t>
+      <t xml:space="preserve">令和2年9月24日現在</t>
     </r>
   </si>
   <si>
@@ -8382,6 +8382,16 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">No.5123と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">岡崎市発表165</t>
     </r>
   </si>
@@ -8653,6 +8663,606 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">名古屋市発表2767</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9月23日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5135と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1911</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1912</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5085と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1913</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1914</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5091と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1915</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1916</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5120と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊田市発表227</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表169</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表170</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2768</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2769</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2770</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2771</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2772</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9月24日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1917</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1918</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1919</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5136と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1920</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1921</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1922</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊田市発表228</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表171</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表172</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表173</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表174</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表175</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表176</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表177</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表178</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表179</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表180</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5100と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊橋市発表73</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊橋市発表74</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊橋市発表75</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5112と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2773</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2774</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2775</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2776</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2777</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2778</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2779</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5143と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2780</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2781</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5186と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2782</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2783</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.4794と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2784</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2785</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2786</t>
     </r>
   </si>
 </sst>
@@ -9135,7 +9745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I600"/>
+  <dimension ref="A1:I648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9146,8 +9756,8 @@
     <col min="3" max="3" customWidth="1" width="16.666667"/>
     <col min="4" max="4" customWidth="1" width="10.666667"/>
     <col min="5" max="5" customWidth="1" width="18.888889"/>
-    <col min="6" max="6" customWidth="1" width="21.333333"/>
-    <col min="7" max="7" customWidth="1" width="3.777778"/>
+    <col min="6" max="6" customWidth="1" width="21.111111"/>
+    <col min="7" max="7" customWidth="1" width="4"/>
     <col min="8" max="8" customWidth="1" width="20.888889"/>
     <col min="9" max="9" customWidth="1" width="2.666667"/>
   </cols>
@@ -21954,10 +22564,12 @@
       <c r="E579" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F579" s="17"/>
-      <c r="G579" s="18"/>
+      <c r="F579" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G579" s="16"/>
       <c r="H579" s="14" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="I579" s="0"/>
     </row>
@@ -21978,7 +22590,7 @@
       <c r="F580" s="17"/>
       <c r="G580" s="18"/>
       <c r="H580" s="14" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="I580" s="0"/>
     </row>
@@ -21999,7 +22611,7 @@
       <c r="F581" s="17"/>
       <c r="G581" s="18"/>
       <c r="H581" s="14" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="I581" s="0"/>
     </row>
@@ -22022,7 +22634,7 @@
       </c>
       <c r="G582" s="16"/>
       <c r="H582" s="14" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="I582" s="0"/>
     </row>
@@ -22045,7 +22657,7 @@
       </c>
       <c r="G583" s="16"/>
       <c r="H583" s="14" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="I583" s="0"/>
     </row>
@@ -22064,11 +22676,11 @@
         <v>58</v>
       </c>
       <c r="F584" s="15" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G584" s="16"/>
       <c r="H584" s="14" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="I584" s="0"/>
     </row>
@@ -22091,7 +22703,7 @@
       </c>
       <c r="G585" s="16"/>
       <c r="H585" s="14" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="I585" s="0"/>
     </row>
@@ -22114,7 +22726,7 @@
       </c>
       <c r="G586" s="16"/>
       <c r="H586" s="14" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I586" s="0"/>
     </row>
@@ -22137,7 +22749,7 @@
       </c>
       <c r="G587" s="16"/>
       <c r="H587" s="14" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="I587" s="0"/>
     </row>
@@ -22160,7 +22772,7 @@
       </c>
       <c r="G588" s="16"/>
       <c r="H588" s="14" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="I588" s="0"/>
     </row>
@@ -22181,7 +22793,7 @@
       <c r="F589" s="17"/>
       <c r="G589" s="18"/>
       <c r="H589" s="14" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="I589" s="0"/>
     </row>
@@ -22202,7 +22814,7 @@
       <c r="F590" s="17"/>
       <c r="G590" s="18"/>
       <c r="H590" s="14" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="I590" s="0"/>
     </row>
@@ -22223,7 +22835,7 @@
       <c r="F591" s="17"/>
       <c r="G591" s="18"/>
       <c r="H591" s="14" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="I591" s="0"/>
     </row>
@@ -22232,7 +22844,7 @@
         <v>5135</v>
       </c>
       <c r="B592" s="11" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C592" s="12" t="s">
         <v>23</v>
@@ -22244,7 +22856,7 @@
       <c r="F592" s="17"/>
       <c r="G592" s="18"/>
       <c r="H592" s="14" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="I592" s="0"/>
     </row>
@@ -22253,21 +22865,21 @@
         <v>5136</v>
       </c>
       <c r="B593" s="11" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C593" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D593" s="13"/>
       <c r="E593" s="14" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F593" s="15" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G593" s="16"/>
       <c r="H593" s="14" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="I593" s="0"/>
     </row>
@@ -22276,7 +22888,7 @@
         <v>5137</v>
       </c>
       <c r="B594" s="11" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C594" s="12" t="s">
         <v>20</v>
@@ -22286,11 +22898,11 @@
         <v>208</v>
       </c>
       <c r="F594" s="15" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G594" s="16"/>
       <c r="H594" s="14" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="I594" s="0"/>
     </row>
@@ -22299,7 +22911,7 @@
         <v>5138</v>
       </c>
       <c r="B595" s="11" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C595" s="12" t="s">
         <v>135</v>
@@ -22309,11 +22921,11 @@
         <v>88</v>
       </c>
       <c r="F595" s="15" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G595" s="16"/>
       <c r="H595" s="14" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="I595" s="0"/>
     </row>
@@ -22322,7 +22934,7 @@
         <v>5139</v>
       </c>
       <c r="B596" s="11" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C596" s="12" t="s">
         <v>10</v>
@@ -22336,7 +22948,7 @@
       </c>
       <c r="G596" s="16"/>
       <c r="H596" s="14" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="I596" s="0"/>
     </row>
@@ -22345,7 +22957,7 @@
         <v>5140</v>
       </c>
       <c r="B597" s="11" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C597" s="12" t="s">
         <v>39</v>
@@ -22359,7 +22971,7 @@
       </c>
       <c r="G597" s="16"/>
       <c r="H597" s="14" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="I597" s="0"/>
     </row>
@@ -22368,9 +22980,9 @@
         <v>5141</v>
       </c>
       <c r="B598" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="C598" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="C598" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D598" s="13"/>
@@ -22382,7 +22994,7 @@
       </c>
       <c r="G598" s="16"/>
       <c r="H598" s="14" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="I598" s="0"/>
     </row>
@@ -22391,9 +23003,9 @@
         <v>5142</v>
       </c>
       <c r="B599" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="C599" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="C599" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D599" s="13"/>
@@ -22403,7 +23015,7 @@
       <c r="F599" s="17"/>
       <c r="G599" s="18"/>
       <c r="H599" s="14" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="I599" s="0"/>
     </row>
@@ -22412,9 +23024,9 @@
         <v>5143</v>
       </c>
       <c r="B600" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="C600" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="C600" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D600" s="13"/>
@@ -22424,12 +23036,1072 @@
       <c r="F600" s="17"/>
       <c r="G600" s="18"/>
       <c r="H600" s="14" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="I600" s="0"/>
     </row>
+    <row r="601" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A601" s="25">
+        <v>5144</v>
+      </c>
+      <c r="B601" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C601" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D601" s="13"/>
+      <c r="E601" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F601" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="G601" s="16"/>
+      <c r="H601" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="I601" s="0"/>
+    </row>
+    <row r="602" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A602" s="25">
+        <v>5145</v>
+      </c>
+      <c r="B602" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C602" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D602" s="13"/>
+      <c r="E602" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F602" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="G602" s="16"/>
+      <c r="H602" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="I602" s="0"/>
+    </row>
+    <row r="603" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A603" s="25">
+        <v>5146</v>
+      </c>
+      <c r="B603" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C603" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D603" s="13"/>
+      <c r="E603" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F603" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="G603" s="16"/>
+      <c r="H603" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="I603" s="0"/>
+    </row>
+    <row r="604" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A604" s="25">
+        <v>5147</v>
+      </c>
+      <c r="B604" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C604" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D604" s="13"/>
+      <c r="E604" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F604" s="17"/>
+      <c r="G604" s="18"/>
+      <c r="H604" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="I604" s="0"/>
+    </row>
+    <row r="605" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A605" s="25">
+        <v>5148</v>
+      </c>
+      <c r="B605" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C605" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D605" s="13"/>
+      <c r="E605" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F605" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="G605" s="16"/>
+      <c r="H605" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="I605" s="0"/>
+    </row>
+    <row r="606" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A606" s="25">
+        <v>5149</v>
+      </c>
+      <c r="B606" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C606" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D606" s="13"/>
+      <c r="E606" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F606" s="17"/>
+      <c r="G606" s="18"/>
+      <c r="H606" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="I606" s="0"/>
+    </row>
+    <row r="607" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A607" s="25">
+        <v>5150</v>
+      </c>
+      <c r="B607" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C607" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D607" s="13"/>
+      <c r="E607" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F607" s="15" t="s">
+        <v>875</v>
+      </c>
+      <c r="G607" s="16"/>
+      <c r="H607" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="I607" s="0"/>
+    </row>
+    <row r="608" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A608" s="25">
+        <v>5151</v>
+      </c>
+      <c r="B608" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C608" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D608" s="13"/>
+      <c r="E608" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F608" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G608" s="16"/>
+      <c r="H608" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="I608" s="0"/>
+    </row>
+    <row r="609" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A609" s="25">
+        <v>5152</v>
+      </c>
+      <c r="B609" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C609" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D609" s="13"/>
+      <c r="E609" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F609" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G609" s="16"/>
+      <c r="H609" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="I609" s="0"/>
+    </row>
+    <row r="610" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A610" s="25">
+        <v>5153</v>
+      </c>
+      <c r="B610" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C610" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D610" s="13"/>
+      <c r="E610" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F610" s="17"/>
+      <c r="G610" s="18"/>
+      <c r="H610" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="I610" s="0"/>
+    </row>
+    <row r="611" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A611" s="25">
+        <v>5154</v>
+      </c>
+      <c r="B611" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C611" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D611" s="13"/>
+      <c r="E611" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F611" s="17"/>
+      <c r="G611" s="18"/>
+      <c r="H611" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="I611" s="0"/>
+    </row>
+    <row r="612" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A612" s="25">
+        <v>5155</v>
+      </c>
+      <c r="B612" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C612" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D612" s="13"/>
+      <c r="E612" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F612" s="17"/>
+      <c r="G612" s="18"/>
+      <c r="H612" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="I612" s="0"/>
+    </row>
+    <row r="613" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A613" s="25">
+        <v>5156</v>
+      </c>
+      <c r="B613" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C613" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D613" s="13"/>
+      <c r="E613" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F613" s="17"/>
+      <c r="G613" s="18"/>
+      <c r="H613" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="I613" s="0"/>
+    </row>
+    <row r="614" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A614" s="25">
+        <v>5157</v>
+      </c>
+      <c r="B614" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C614" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D614" s="13"/>
+      <c r="E614" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F614" s="17"/>
+      <c r="G614" s="18"/>
+      <c r="H614" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="I614" s="0"/>
+    </row>
+    <row r="615" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A615" s="25">
+        <v>5158</v>
+      </c>
+      <c r="B615" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C615" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D615" s="13"/>
+      <c r="E615" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F615" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="G615" s="16"/>
+      <c r="H615" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="I615" s="0"/>
+    </row>
+    <row r="616" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A616" s="25">
+        <v>5159</v>
+      </c>
+      <c r="B616" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C616" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D616" s="13"/>
+      <c r="E616" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F616" s="17"/>
+      <c r="G616" s="18"/>
+      <c r="H616" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="I616" s="0"/>
+    </row>
+    <row r="617" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A617" s="25">
+        <v>5160</v>
+      </c>
+      <c r="B617" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C617" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D617" s="13"/>
+      <c r="E617" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F617" s="17"/>
+      <c r="G617" s="18"/>
+      <c r="H617" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="I617" s="0"/>
+    </row>
+    <row r="618" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A618" s="25">
+        <v>5161</v>
+      </c>
+      <c r="B618" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C618" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D618" s="13"/>
+      <c r="E618" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F618" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="G618" s="16"/>
+      <c r="H618" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="I618" s="0"/>
+    </row>
+    <row r="619" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A619" s="25">
+        <v>5162</v>
+      </c>
+      <c r="B619" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C619" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D619" s="13"/>
+      <c r="E619" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F619" s="17"/>
+      <c r="G619" s="18"/>
+      <c r="H619" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="I619" s="0"/>
+    </row>
+    <row r="620" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A620" s="25">
+        <v>5163</v>
+      </c>
+      <c r="B620" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C620" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="D620" s="13"/>
+      <c r="E620" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F620" s="17"/>
+      <c r="G620" s="18"/>
+      <c r="H620" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="I620" s="0"/>
+    </row>
+    <row r="621" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A621" s="25">
+        <v>5164</v>
+      </c>
+      <c r="B621" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C621" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D621" s="13"/>
+      <c r="E621" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F621" s="17"/>
+      <c r="G621" s="18"/>
+      <c r="H621" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="I621" s="0"/>
+    </row>
+    <row r="622" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A622" s="25">
+        <v>5165</v>
+      </c>
+      <c r="B622" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C622" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D622" s="13"/>
+      <c r="E622" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F622" s="17"/>
+      <c r="G622" s="18"/>
+      <c r="H622" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="I622" s="0"/>
+    </row>
+    <row r="623" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A623" s="25">
+        <v>5166</v>
+      </c>
+      <c r="B623" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C623" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D623" s="13"/>
+      <c r="E623" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F623" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G623" s="16"/>
+      <c r="H623" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="I623" s="0"/>
+    </row>
+    <row r="624" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A624" s="25">
+        <v>5167</v>
+      </c>
+      <c r="B624" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C624" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D624" s="13"/>
+      <c r="E624" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F624" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G624" s="16"/>
+      <c r="H624" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="I624" s="0"/>
+    </row>
+    <row r="625" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A625" s="25">
+        <v>5168</v>
+      </c>
+      <c r="B625" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C625" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D625" s="13"/>
+      <c r="E625" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F625" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G625" s="16"/>
+      <c r="H625" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="I625" s="0"/>
+    </row>
+    <row r="626" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A626" s="25">
+        <v>5169</v>
+      </c>
+      <c r="B626" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C626" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D626" s="13"/>
+      <c r="E626" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F626" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G626" s="16"/>
+      <c r="H626" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="I626" s="0"/>
+    </row>
+    <row r="627" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A627" s="25">
+        <v>5170</v>
+      </c>
+      <c r="B627" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C627" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D627" s="13"/>
+      <c r="E627" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F627" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G627" s="16"/>
+      <c r="H627" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="I627" s="0"/>
+    </row>
+    <row r="628" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A628" s="25">
+        <v>5171</v>
+      </c>
+      <c r="B628" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C628" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D628" s="13"/>
+      <c r="E628" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F628" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G628" s="16"/>
+      <c r="H628" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="I628" s="0"/>
+    </row>
+    <row r="629" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A629" s="25">
+        <v>5172</v>
+      </c>
+      <c r="B629" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C629" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D629" s="13"/>
+      <c r="E629" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F629" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G629" s="16"/>
+      <c r="H629" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="I629" s="0"/>
+    </row>
+    <row r="630" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A630" s="25">
+        <v>5173</v>
+      </c>
+      <c r="B630" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C630" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D630" s="13"/>
+      <c r="E630" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F630" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G630" s="16"/>
+      <c r="H630" s="14" t="s">
+        <v>901</v>
+      </c>
+      <c r="I630" s="0"/>
+    </row>
+    <row r="631" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A631" s="25">
+        <v>5174</v>
+      </c>
+      <c r="B631" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C631" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D631" s="13"/>
+      <c r="E631" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F631" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G631" s="16"/>
+      <c r="H631" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="I631" s="0"/>
+    </row>
+    <row r="632" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A632" s="25">
+        <v>5175</v>
+      </c>
+      <c r="B632" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C632" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D632" s="13"/>
+      <c r="E632" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F632" s="15" t="s">
+        <v>903</v>
+      </c>
+      <c r="G632" s="16"/>
+      <c r="H632" s="14" t="s">
+        <v>904</v>
+      </c>
+      <c r="I632" s="0"/>
+    </row>
+    <row r="633" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A633" s="25">
+        <v>5176</v>
+      </c>
+      <c r="B633" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C633" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D633" s="13"/>
+      <c r="E633" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F633" s="15" t="s">
+        <v>903</v>
+      </c>
+      <c r="G633" s="16"/>
+      <c r="H633" s="14" t="s">
+        <v>905</v>
+      </c>
+      <c r="I633" s="0"/>
+    </row>
+    <row r="634" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A634" s="25">
+        <v>5177</v>
+      </c>
+      <c r="B634" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C634" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D634" s="13"/>
+      <c r="E634" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F634" s="17"/>
+      <c r="G634" s="18"/>
+      <c r="H634" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="I634" s="0"/>
+    </row>
+    <row r="635" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A635" s="25">
+        <v>5178</v>
+      </c>
+      <c r="B635" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C635" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D635" s="13"/>
+      <c r="E635" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F635" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="G635" s="16"/>
+      <c r="H635" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="I635" s="0"/>
+    </row>
+    <row r="636" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A636" s="25">
+        <v>5179</v>
+      </c>
+      <c r="B636" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C636" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D636" s="13"/>
+      <c r="E636" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F636" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="G636" s="16"/>
+      <c r="H636" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="I636" s="0"/>
+    </row>
+    <row r="637" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A637" s="25">
+        <v>5180</v>
+      </c>
+      <c r="B637" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C637" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D637" s="13"/>
+      <c r="E637" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F637" s="17"/>
+      <c r="G637" s="18"/>
+      <c r="H637" s="14" t="s">
+        <v>910</v>
+      </c>
+      <c r="I637" s="0"/>
+    </row>
+    <row r="638" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A638" s="25">
+        <v>5181</v>
+      </c>
+      <c r="B638" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C638" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D638" s="13"/>
+      <c r="E638" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F638" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G638" s="16"/>
+      <c r="H638" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="I638" s="0"/>
+    </row>
+    <row r="639" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A639" s="25">
+        <v>5182</v>
+      </c>
+      <c r="B639" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C639" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D639" s="13"/>
+      <c r="E639" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F639" s="17"/>
+      <c r="G639" s="18"/>
+      <c r="H639" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="I639" s="0"/>
+    </row>
+    <row r="640" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A640" s="25">
+        <v>5183</v>
+      </c>
+      <c r="B640" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C640" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D640" s="13"/>
+      <c r="E640" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F640" s="17"/>
+      <c r="G640" s="18"/>
+      <c r="H640" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="I640" s="0"/>
+    </row>
+    <row r="641" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A641" s="25">
+        <v>5184</v>
+      </c>
+      <c r="B641" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C641" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D641" s="13"/>
+      <c r="E641" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F641" s="17"/>
+      <c r="G641" s="18"/>
+      <c r="H641" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="I641" s="0"/>
+    </row>
+    <row r="642" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A642" s="25">
+        <v>5185</v>
+      </c>
+      <c r="B642" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C642" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D642" s="13"/>
+      <c r="E642" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F642" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="G642" s="16"/>
+      <c r="H642" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="I642" s="0"/>
+    </row>
+    <row r="643" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A643" s="25">
+        <v>5186</v>
+      </c>
+      <c r="B643" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C643" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D643" s="13"/>
+      <c r="E643" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F643" s="17"/>
+      <c r="G643" s="18"/>
+      <c r="H643" s="14" t="s">
+        <v>917</v>
+      </c>
+      <c r="I643" s="0"/>
+    </row>
+    <row r="644" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A644" s="25">
+        <v>5187</v>
+      </c>
+      <c r="B644" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C644" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D644" s="13"/>
+      <c r="E644" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F644" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="G644" s="16"/>
+      <c r="H644" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="I644" s="0"/>
+    </row>
+    <row r="645" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A645" s="25">
+        <v>5188</v>
+      </c>
+      <c r="B645" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C645" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D645" s="13"/>
+      <c r="E645" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F645" s="17"/>
+      <c r="G645" s="18"/>
+      <c r="H645" s="14" t="s">
+        <v>920</v>
+      </c>
+      <c r="I645" s="0"/>
+    </row>
+    <row r="646" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A646" s="25">
+        <v>5189</v>
+      </c>
+      <c r="B646" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C646" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D646" s="13"/>
+      <c r="E646" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F646" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="G646" s="16"/>
+      <c r="H646" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="I646" s="0"/>
+    </row>
+    <row r="647" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A647" s="25">
+        <v>5190</v>
+      </c>
+      <c r="B647" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C647" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D647" s="13"/>
+      <c r="E647" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F647" s="17"/>
+      <c r="G647" s="18"/>
+      <c r="H647" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="I647" s="0"/>
+    </row>
+    <row r="648" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A648" s="25">
+        <v>5191</v>
+      </c>
+      <c r="B648" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C648" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D648" s="13"/>
+      <c r="E648" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F648" s="17"/>
+      <c r="G648" s="18"/>
+      <c r="H648" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="I648" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="601">
+  <mergeCells count="649">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="F2:G2"/>
@@ -23031,6 +24703,54 @@
     <mergeCell ref="F598:G598"/>
     <mergeCell ref="F599:G599"/>
     <mergeCell ref="F600:G600"/>
+    <mergeCell ref="F601:G601"/>
+    <mergeCell ref="F602:G602"/>
+    <mergeCell ref="F603:G603"/>
+    <mergeCell ref="F604:G604"/>
+    <mergeCell ref="F605:G605"/>
+    <mergeCell ref="F606:G606"/>
+    <mergeCell ref="F607:G607"/>
+    <mergeCell ref="F608:G608"/>
+    <mergeCell ref="F609:G609"/>
+    <mergeCell ref="F610:G610"/>
+    <mergeCell ref="F611:G611"/>
+    <mergeCell ref="F612:G612"/>
+    <mergeCell ref="F613:G613"/>
+    <mergeCell ref="F614:G614"/>
+    <mergeCell ref="F615:G615"/>
+    <mergeCell ref="F616:G616"/>
+    <mergeCell ref="F617:G617"/>
+    <mergeCell ref="F618:G618"/>
+    <mergeCell ref="F619:G619"/>
+    <mergeCell ref="F620:G620"/>
+    <mergeCell ref="F621:G621"/>
+    <mergeCell ref="F622:G622"/>
+    <mergeCell ref="F623:G623"/>
+    <mergeCell ref="F624:G624"/>
+    <mergeCell ref="F625:G625"/>
+    <mergeCell ref="F626:G626"/>
+    <mergeCell ref="F627:G627"/>
+    <mergeCell ref="F628:G628"/>
+    <mergeCell ref="F629:G629"/>
+    <mergeCell ref="F630:G630"/>
+    <mergeCell ref="F631:G631"/>
+    <mergeCell ref="F632:G632"/>
+    <mergeCell ref="F633:G633"/>
+    <mergeCell ref="F634:G634"/>
+    <mergeCell ref="F635:G635"/>
+    <mergeCell ref="F636:G636"/>
+    <mergeCell ref="F637:G637"/>
+    <mergeCell ref="F638:G638"/>
+    <mergeCell ref="F639:G639"/>
+    <mergeCell ref="F640:G640"/>
+    <mergeCell ref="F641:G641"/>
+    <mergeCell ref="F642:G642"/>
+    <mergeCell ref="F643:G643"/>
+    <mergeCell ref="F644:G644"/>
+    <mergeCell ref="F645:G645"/>
+    <mergeCell ref="F646:G646"/>
+    <mergeCell ref="F647:G647"/>
+    <mergeCell ref="F648:G648"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work/23_aichi2.xlsx
+++ b/work/23_aichi2.xlsx
@@ -32,7 +32,7 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">令和2年9月24日現在</t>
+      <t xml:space="preserve">令和2年9月26日現在</t>
     </r>
   </si>
   <si>
@@ -9263,6 +9263,806 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">名古屋市発表2786</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9月25日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1923</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1924</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1925</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1926</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5160と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1927</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5188と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1928</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5182と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1929</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1930</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1931</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1932</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1933</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1934</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">幸田町</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1935</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1936</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊田市発表229</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表181</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5080と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2787</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2788</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2789</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5210と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2790</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2791</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2792</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2793</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2794</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2795</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2796</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5217と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2797</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2798</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2799</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2800</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5113と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2801</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2802</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5190と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2803</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2804</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2805</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5078と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2806</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2807</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2808</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9月26日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1937</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5117と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1938</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5200と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1939</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5159と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1940</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊田市発表230</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表182</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表183</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表184</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表185</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表186</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表187</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表188</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表189</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2809</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2810</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2811</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2812</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2813</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2814</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5211と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2815</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5249と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2816</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5010と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2817</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2818</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2819</t>
     </r>
   </si>
 </sst>
@@ -9745,7 +10545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I648"/>
+  <dimension ref="A1:I710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9756,8 +10556,8 @@
     <col min="3" max="3" customWidth="1" width="16.666667"/>
     <col min="4" max="4" customWidth="1" width="10.666667"/>
     <col min="5" max="5" customWidth="1" width="18.888889"/>
-    <col min="6" max="6" customWidth="1" width="21.111111"/>
-    <col min="7" max="7" customWidth="1" width="4"/>
+    <col min="6" max="6" customWidth="1" width="21.333333"/>
+    <col min="7" max="7" customWidth="1" width="3.777778"/>
     <col min="8" max="8" customWidth="1" width="20.888889"/>
     <col min="9" max="9" customWidth="1" width="2.666667"/>
   </cols>
@@ -24100,8 +24900,1384 @@
       </c>
       <c r="I648" s="0"/>
     </row>
+    <row r="649" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A649" s="25">
+        <v>5192</v>
+      </c>
+      <c r="B649" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C649" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D649" s="13"/>
+      <c r="E649" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F649" s="17"/>
+      <c r="G649" s="18"/>
+      <c r="H649" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="I649" s="0"/>
+    </row>
+    <row r="650" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A650" s="25">
+        <v>5193</v>
+      </c>
+      <c r="B650" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C650" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D650" s="13"/>
+      <c r="E650" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F650" s="17"/>
+      <c r="G650" s="18"/>
+      <c r="H650" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="I650" s="0"/>
+    </row>
+    <row r="651" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A651" s="25">
+        <v>5194</v>
+      </c>
+      <c r="B651" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C651" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D651" s="13"/>
+      <c r="E651" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F651" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="G651" s="16"/>
+      <c r="H651" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="I651" s="0"/>
+    </row>
+    <row r="652" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A652" s="25">
+        <v>5195</v>
+      </c>
+      <c r="B652" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C652" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D652" s="13"/>
+      <c r="E652" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F652" s="17"/>
+      <c r="G652" s="18"/>
+      <c r="H652" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="I652" s="0"/>
+    </row>
+    <row r="653" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A653" s="25">
+        <v>5196</v>
+      </c>
+      <c r="B653" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C653" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D653" s="13"/>
+      <c r="E653" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F653" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="G653" s="16"/>
+      <c r="H653" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="I653" s="0"/>
+    </row>
+    <row r="654" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A654" s="25">
+        <v>5197</v>
+      </c>
+      <c r="B654" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C654" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D654" s="13"/>
+      <c r="E654" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F654" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="G654" s="16"/>
+      <c r="H654" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="I654" s="0"/>
+    </row>
+    <row r="655" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A655" s="25">
+        <v>5198</v>
+      </c>
+      <c r="B655" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C655" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D655" s="13"/>
+      <c r="E655" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F655" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="G655" s="16"/>
+      <c r="H655" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="I655" s="0"/>
+    </row>
+    <row r="656" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A656" s="25">
+        <v>5199</v>
+      </c>
+      <c r="B656" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C656" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D656" s="13"/>
+      <c r="E656" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F656" s="17"/>
+      <c r="G656" s="18"/>
+      <c r="H656" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="I656" s="0"/>
+    </row>
+    <row r="657" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A657" s="25">
+        <v>5200</v>
+      </c>
+      <c r="B657" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C657" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D657" s="13"/>
+      <c r="E657" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F657" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="G657" s="16"/>
+      <c r="H657" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="I657" s="0"/>
+    </row>
+    <row r="658" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A658" s="25">
+        <v>5201</v>
+      </c>
+      <c r="B658" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C658" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D658" s="13"/>
+      <c r="E658" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F658" s="17"/>
+      <c r="G658" s="18"/>
+      <c r="H658" s="14" t="s">
+        <v>938</v>
+      </c>
+      <c r="I658" s="0"/>
+    </row>
+    <row r="659" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A659" s="25">
+        <v>5202</v>
+      </c>
+      <c r="B659" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C659" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D659" s="13"/>
+      <c r="E659" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F659" s="17"/>
+      <c r="G659" s="18"/>
+      <c r="H659" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="I659" s="0"/>
+    </row>
+    <row r="660" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A660" s="25">
+        <v>5203</v>
+      </c>
+      <c r="B660" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C660" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D660" s="13"/>
+      <c r="E660" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F660" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="G660" s="16"/>
+      <c r="H660" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="I660" s="0"/>
+    </row>
+    <row r="661" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A661" s="25">
+        <v>5204</v>
+      </c>
+      <c r="B661" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C661" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D661" s="13"/>
+      <c r="E661" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="F661" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G661" s="16"/>
+      <c r="H661" s="14" t="s">
+        <v>942</v>
+      </c>
+      <c r="I661" s="0"/>
+    </row>
+    <row r="662" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A662" s="25">
+        <v>5205</v>
+      </c>
+      <c r="B662" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C662" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D662" s="13"/>
+      <c r="E662" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="F662" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G662" s="16"/>
+      <c r="H662" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="I662" s="0"/>
+    </row>
+    <row r="663" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A663" s="25">
+        <v>5206</v>
+      </c>
+      <c r="B663" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C663" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D663" s="13"/>
+      <c r="E663" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F663" s="17"/>
+      <c r="G663" s="18"/>
+      <c r="H663" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="I663" s="0"/>
+    </row>
+    <row r="664" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A664" s="25">
+        <v>5207</v>
+      </c>
+      <c r="B664" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C664" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D664" s="13"/>
+      <c r="E664" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F664" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="G664" s="16"/>
+      <c r="H664" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="I664" s="0"/>
+    </row>
+    <row r="665" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A665" s="25">
+        <v>5208</v>
+      </c>
+      <c r="B665" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C665" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D665" s="13"/>
+      <c r="E665" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F665" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="G665" s="16"/>
+      <c r="H665" s="14" t="s">
+        <v>947</v>
+      </c>
+      <c r="I665" s="0"/>
+    </row>
+    <row r="666" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A666" s="25">
+        <v>5209</v>
+      </c>
+      <c r="B666" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C666" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D666" s="13"/>
+      <c r="E666" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F666" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="G666" s="16"/>
+      <c r="H666" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="I666" s="0"/>
+    </row>
+    <row r="667" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A667" s="25">
+        <v>5210</v>
+      </c>
+      <c r="B667" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C667" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D667" s="13"/>
+      <c r="E667" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F667" s="17"/>
+      <c r="G667" s="18"/>
+      <c r="H667" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="I667" s="0"/>
+    </row>
+    <row r="668" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A668" s="25">
+        <v>5211</v>
+      </c>
+      <c r="B668" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C668" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D668" s="13"/>
+      <c r="E668" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F668" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G668" s="16"/>
+      <c r="H668" s="14" t="s">
+        <v>951</v>
+      </c>
+      <c r="I668" s="0"/>
+    </row>
+    <row r="669" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A669" s="25">
+        <v>5212</v>
+      </c>
+      <c r="B669" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C669" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D669" s="13"/>
+      <c r="E669" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F669" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G669" s="16"/>
+      <c r="H669" s="14" t="s">
+        <v>952</v>
+      </c>
+      <c r="I669" s="0"/>
+    </row>
+    <row r="670" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A670" s="25">
+        <v>5213</v>
+      </c>
+      <c r="B670" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C670" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D670" s="13"/>
+      <c r="E670" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F670" s="17"/>
+      <c r="G670" s="18"/>
+      <c r="H670" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="I670" s="0"/>
+    </row>
+    <row r="671" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A671" s="25">
+        <v>5214</v>
+      </c>
+      <c r="B671" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C671" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D671" s="13"/>
+      <c r="E671" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F671" s="17"/>
+      <c r="G671" s="18"/>
+      <c r="H671" s="14" t="s">
+        <v>954</v>
+      </c>
+      <c r="I671" s="0"/>
+    </row>
+    <row r="672" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A672" s="25">
+        <v>5215</v>
+      </c>
+      <c r="B672" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C672" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D672" s="13"/>
+      <c r="E672" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F672" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="G672" s="16"/>
+      <c r="H672" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="I672" s="0"/>
+    </row>
+    <row r="673" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A673" s="25">
+        <v>5216</v>
+      </c>
+      <c r="B673" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C673" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D673" s="13"/>
+      <c r="E673" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F673" s="17"/>
+      <c r="G673" s="18"/>
+      <c r="H673" s="14" t="s">
+        <v>956</v>
+      </c>
+      <c r="I673" s="0"/>
+    </row>
+    <row r="674" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A674" s="25">
+        <v>5217</v>
+      </c>
+      <c r="B674" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C674" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D674" s="13"/>
+      <c r="E674" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F674" s="17"/>
+      <c r="G674" s="18"/>
+      <c r="H674" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="I674" s="0"/>
+    </row>
+    <row r="675" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A675" s="25">
+        <v>5218</v>
+      </c>
+      <c r="B675" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C675" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D675" s="13"/>
+      <c r="E675" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F675" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="G675" s="16"/>
+      <c r="H675" s="14" t="s">
+        <v>959</v>
+      </c>
+      <c r="I675" s="0"/>
+    </row>
+    <row r="676" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A676" s="25">
+        <v>5219</v>
+      </c>
+      <c r="B676" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C676" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D676" s="13"/>
+      <c r="E676" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F676" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="G676" s="16"/>
+      <c r="H676" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="I676" s="0"/>
+    </row>
+    <row r="677" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A677" s="25">
+        <v>5220</v>
+      </c>
+      <c r="B677" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C677" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D677" s="13"/>
+      <c r="E677" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F677" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="G677" s="16"/>
+      <c r="H677" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="I677" s="0"/>
+    </row>
+    <row r="678" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A678" s="25">
+        <v>5221</v>
+      </c>
+      <c r="B678" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C678" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D678" s="13"/>
+      <c r="E678" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F678" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="G678" s="16"/>
+      <c r="H678" s="14" t="s">
+        <v>962</v>
+      </c>
+      <c r="I678" s="0"/>
+    </row>
+    <row r="679" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A679" s="25">
+        <v>5222</v>
+      </c>
+      <c r="B679" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C679" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D679" s="13"/>
+      <c r="E679" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F679" s="15" t="s">
+        <v>963</v>
+      </c>
+      <c r="G679" s="16"/>
+      <c r="H679" s="14" t="s">
+        <v>964</v>
+      </c>
+      <c r="I679" s="0"/>
+    </row>
+    <row r="680" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A680" s="25">
+        <v>5223</v>
+      </c>
+      <c r="B680" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C680" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D680" s="13"/>
+      <c r="E680" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F680" s="17"/>
+      <c r="G680" s="18"/>
+      <c r="H680" s="14" t="s">
+        <v>965</v>
+      </c>
+      <c r="I680" s="0"/>
+    </row>
+    <row r="681" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A681" s="25">
+        <v>5224</v>
+      </c>
+      <c r="B681" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C681" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D681" s="13"/>
+      <c r="E681" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F681" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="G681" s="16"/>
+      <c r="H681" s="14" t="s">
+        <v>967</v>
+      </c>
+      <c r="I681" s="0"/>
+    </row>
+    <row r="682" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A682" s="25">
+        <v>5225</v>
+      </c>
+      <c r="B682" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C682" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D682" s="13"/>
+      <c r="E682" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F682" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="G682" s="16"/>
+      <c r="H682" s="14" t="s">
+        <v>968</v>
+      </c>
+      <c r="I682" s="0"/>
+    </row>
+    <row r="683" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A683" s="25">
+        <v>5226</v>
+      </c>
+      <c r="B683" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C683" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D683" s="13"/>
+      <c r="E683" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F683" s="17"/>
+      <c r="G683" s="18"/>
+      <c r="H683" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="I683" s="0"/>
+    </row>
+    <row r="684" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A684" s="25">
+        <v>5227</v>
+      </c>
+      <c r="B684" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C684" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D684" s="13"/>
+      <c r="E684" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F684" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="G684" s="16"/>
+      <c r="H684" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="I684" s="0"/>
+    </row>
+    <row r="685" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A685" s="25">
+        <v>5228</v>
+      </c>
+      <c r="B685" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C685" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D685" s="13"/>
+      <c r="E685" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F685" s="17"/>
+      <c r="G685" s="18"/>
+      <c r="H685" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="I685" s="0"/>
+    </row>
+    <row r="686" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A686" s="25">
+        <v>5229</v>
+      </c>
+      <c r="B686" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C686" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D686" s="13"/>
+      <c r="E686" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F686" s="17"/>
+      <c r="G686" s="18"/>
+      <c r="H686" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="I686" s="0"/>
+    </row>
+    <row r="687" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A687" s="25">
+        <v>5230</v>
+      </c>
+      <c r="B687" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C687" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D687" s="13"/>
+      <c r="E687" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F687" s="17"/>
+      <c r="G687" s="18"/>
+      <c r="H687" s="14" t="s">
+        <v>975</v>
+      </c>
+      <c r="I687" s="0"/>
+    </row>
+    <row r="688" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A688" s="25">
+        <v>5231</v>
+      </c>
+      <c r="B688" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C688" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D688" s="13"/>
+      <c r="E688" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F688" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="G688" s="16"/>
+      <c r="H688" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="I688" s="0"/>
+    </row>
+    <row r="689" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A689" s="25">
+        <v>5232</v>
+      </c>
+      <c r="B689" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C689" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D689" s="13"/>
+      <c r="E689" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F689" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="G689" s="16"/>
+      <c r="H689" s="14" t="s">
+        <v>979</v>
+      </c>
+      <c r="I689" s="0"/>
+    </row>
+    <row r="690" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A690" s="25">
+        <v>5233</v>
+      </c>
+      <c r="B690" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C690" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D690" s="13"/>
+      <c r="E690" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F690" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="G690" s="16"/>
+      <c r="H690" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="I690" s="0"/>
+    </row>
+    <row r="691" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A691" s="25">
+        <v>5234</v>
+      </c>
+      <c r="B691" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C691" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D691" s="13"/>
+      <c r="E691" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F691" s="17"/>
+      <c r="G691" s="18"/>
+      <c r="H691" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="I691" s="0"/>
+    </row>
+    <row r="692" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A692" s="25">
+        <v>5235</v>
+      </c>
+      <c r="B692" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C692" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D692" s="13"/>
+      <c r="E692" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F692" s="17"/>
+      <c r="G692" s="18"/>
+      <c r="H692" s="14" t="s">
+        <v>983</v>
+      </c>
+      <c r="I692" s="0"/>
+    </row>
+    <row r="693" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A693" s="25">
+        <v>5236</v>
+      </c>
+      <c r="B693" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C693" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D693" s="13"/>
+      <c r="E693" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F693" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G693" s="16"/>
+      <c r="H693" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="I693" s="0"/>
+    </row>
+    <row r="694" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A694" s="25">
+        <v>5237</v>
+      </c>
+      <c r="B694" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C694" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D694" s="13"/>
+      <c r="E694" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F694" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G694" s="16"/>
+      <c r="H694" s="14" t="s">
+        <v>985</v>
+      </c>
+      <c r="I694" s="0"/>
+    </row>
+    <row r="695" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A695" s="25">
+        <v>5238</v>
+      </c>
+      <c r="B695" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C695" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D695" s="13"/>
+      <c r="E695" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F695" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G695" s="16"/>
+      <c r="H695" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="I695" s="0"/>
+    </row>
+    <row r="696" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A696" s="25">
+        <v>5239</v>
+      </c>
+      <c r="B696" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C696" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D696" s="13"/>
+      <c r="E696" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F696" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G696" s="16"/>
+      <c r="H696" s="14" t="s">
+        <v>987</v>
+      </c>
+      <c r="I696" s="0"/>
+    </row>
+    <row r="697" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A697" s="25">
+        <v>5240</v>
+      </c>
+      <c r="B697" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C697" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D697" s="13"/>
+      <c r="E697" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F697" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G697" s="16"/>
+      <c r="H697" s="14" t="s">
+        <v>988</v>
+      </c>
+      <c r="I697" s="0"/>
+    </row>
+    <row r="698" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A698" s="25">
+        <v>5241</v>
+      </c>
+      <c r="B698" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C698" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D698" s="13"/>
+      <c r="E698" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F698" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G698" s="16"/>
+      <c r="H698" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="I698" s="0"/>
+    </row>
+    <row r="699" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A699" s="25">
+        <v>5242</v>
+      </c>
+      <c r="B699" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C699" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D699" s="13"/>
+      <c r="E699" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F699" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G699" s="16"/>
+      <c r="H699" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="I699" s="0"/>
+    </row>
+    <row r="700" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A700" s="25">
+        <v>5243</v>
+      </c>
+      <c r="B700" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C700" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D700" s="13"/>
+      <c r="E700" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F700" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="G700" s="16"/>
+      <c r="H700" s="14" t="s">
+        <v>991</v>
+      </c>
+      <c r="I700" s="0"/>
+    </row>
+    <row r="701" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A701" s="25">
+        <v>5244</v>
+      </c>
+      <c r="B701" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C701" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D701" s="13"/>
+      <c r="E701" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F701" s="17"/>
+      <c r="G701" s="18"/>
+      <c r="H701" s="14" t="s">
+        <v>992</v>
+      </c>
+      <c r="I701" s="0"/>
+    </row>
+    <row r="702" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A702" s="25">
+        <v>5245</v>
+      </c>
+      <c r="B702" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C702" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D702" s="13"/>
+      <c r="E702" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F702" s="17"/>
+      <c r="G702" s="18"/>
+      <c r="H702" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="I702" s="0"/>
+    </row>
+    <row r="703" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A703" s="25">
+        <v>5246</v>
+      </c>
+      <c r="B703" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C703" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D703" s="13"/>
+      <c r="E703" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F703" s="17"/>
+      <c r="G703" s="18"/>
+      <c r="H703" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="I703" s="0"/>
+    </row>
+    <row r="704" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A704" s="25">
+        <v>5247</v>
+      </c>
+      <c r="B704" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C704" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D704" s="13"/>
+      <c r="E704" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F704" s="17"/>
+      <c r="G704" s="18"/>
+      <c r="H704" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="I704" s="0"/>
+    </row>
+    <row r="705" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A705" s="25">
+        <v>5248</v>
+      </c>
+      <c r="B705" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C705" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D705" s="13"/>
+      <c r="E705" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F705" s="17"/>
+      <c r="G705" s="18"/>
+      <c r="H705" s="14" t="s">
+        <v>996</v>
+      </c>
+      <c r="I705" s="0"/>
+    </row>
+    <row r="706" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A706" s="25">
+        <v>5249</v>
+      </c>
+      <c r="B706" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C706" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D706" s="13"/>
+      <c r="E706" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F706" s="15" t="s">
+        <v>997</v>
+      </c>
+      <c r="G706" s="16"/>
+      <c r="H706" s="14" t="s">
+        <v>998</v>
+      </c>
+      <c r="I706" s="0"/>
+    </row>
+    <row r="707" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A707" s="25">
+        <v>5250</v>
+      </c>
+      <c r="B707" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C707" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D707" s="13"/>
+      <c r="E707" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F707" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="G707" s="16"/>
+      <c r="H707" s="14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I707" s="0"/>
+    </row>
+    <row r="708" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A708" s="25">
+        <v>5251</v>
+      </c>
+      <c r="B708" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C708" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D708" s="13"/>
+      <c r="E708" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F708" s="15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G708" s="16"/>
+      <c r="H708" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I708" s="0"/>
+    </row>
+    <row r="709" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A709" s="25">
+        <v>5252</v>
+      </c>
+      <c r="B709" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C709" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D709" s="13"/>
+      <c r="E709" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F709" s="17"/>
+      <c r="G709" s="18"/>
+      <c r="H709" s="14" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I709" s="0"/>
+    </row>
+    <row r="710" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A710" s="25">
+        <v>5253</v>
+      </c>
+      <c r="B710" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C710" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D710" s="13"/>
+      <c r="E710" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F710" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="G710" s="16"/>
+      <c r="H710" s="14" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I710" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="649">
+  <mergeCells count="711">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="F2:G2"/>
@@ -24751,6 +26927,68 @@
     <mergeCell ref="F646:G646"/>
     <mergeCell ref="F647:G647"/>
     <mergeCell ref="F648:G648"/>
+    <mergeCell ref="F649:G649"/>
+    <mergeCell ref="F650:G650"/>
+    <mergeCell ref="F651:G651"/>
+    <mergeCell ref="F652:G652"/>
+    <mergeCell ref="F653:G653"/>
+    <mergeCell ref="F654:G654"/>
+    <mergeCell ref="F655:G655"/>
+    <mergeCell ref="F656:G656"/>
+    <mergeCell ref="F657:G657"/>
+    <mergeCell ref="F658:G658"/>
+    <mergeCell ref="F659:G659"/>
+    <mergeCell ref="F660:G660"/>
+    <mergeCell ref="F661:G661"/>
+    <mergeCell ref="F662:G662"/>
+    <mergeCell ref="F663:G663"/>
+    <mergeCell ref="F664:G664"/>
+    <mergeCell ref="F665:G665"/>
+    <mergeCell ref="F666:G666"/>
+    <mergeCell ref="F667:G667"/>
+    <mergeCell ref="F668:G668"/>
+    <mergeCell ref="F669:G669"/>
+    <mergeCell ref="F670:G670"/>
+    <mergeCell ref="F671:G671"/>
+    <mergeCell ref="F672:G672"/>
+    <mergeCell ref="F673:G673"/>
+    <mergeCell ref="F674:G674"/>
+    <mergeCell ref="F675:G675"/>
+    <mergeCell ref="F676:G676"/>
+    <mergeCell ref="F677:G677"/>
+    <mergeCell ref="F678:G678"/>
+    <mergeCell ref="F679:G679"/>
+    <mergeCell ref="F680:G680"/>
+    <mergeCell ref="F681:G681"/>
+    <mergeCell ref="F682:G682"/>
+    <mergeCell ref="F683:G683"/>
+    <mergeCell ref="F684:G684"/>
+    <mergeCell ref="F685:G685"/>
+    <mergeCell ref="F686:G686"/>
+    <mergeCell ref="F687:G687"/>
+    <mergeCell ref="F688:G688"/>
+    <mergeCell ref="F689:G689"/>
+    <mergeCell ref="F690:G690"/>
+    <mergeCell ref="F691:G691"/>
+    <mergeCell ref="F692:G692"/>
+    <mergeCell ref="F693:G693"/>
+    <mergeCell ref="F694:G694"/>
+    <mergeCell ref="F695:G695"/>
+    <mergeCell ref="F696:G696"/>
+    <mergeCell ref="F697:G697"/>
+    <mergeCell ref="F698:G698"/>
+    <mergeCell ref="F699:G699"/>
+    <mergeCell ref="F700:G700"/>
+    <mergeCell ref="F701:G701"/>
+    <mergeCell ref="F702:G702"/>
+    <mergeCell ref="F703:G703"/>
+    <mergeCell ref="F704:G704"/>
+    <mergeCell ref="F705:G705"/>
+    <mergeCell ref="F706:G706"/>
+    <mergeCell ref="F707:G707"/>
+    <mergeCell ref="F708:G708"/>
+    <mergeCell ref="F709:G709"/>
+    <mergeCell ref="F710:G710"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work/23_aichi2.xlsx
+++ b/work/23_aichi2.xlsx
@@ -32,7 +32,7 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">令和2年9月26日現在</t>
+      <t xml:space="preserve">令和2年9月27日現在</t>
     </r>
   </si>
   <si>
@@ -10063,6 +10063,576 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">名古屋市発表2819</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9月27日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1941</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1942</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5196と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1943</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1944</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1945</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1946</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1947</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1948</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1949</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1950</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5207と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表190</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5165と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表191</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表192</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2820</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2821</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2822</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2823</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2824</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2825</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2826</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2827</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2828</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2829</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2830</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2831</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2832</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5279と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2833</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2834</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2835</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2836</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5180と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2837</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2838</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5285と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2839</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2840</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2841</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2842</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2843</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2844</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2845</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2846</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2847</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2848</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2849</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2850</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2851</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2852</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2853</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2854</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5219と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2855</t>
     </r>
   </si>
 </sst>
@@ -10545,7 +11115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I710"/>
+  <dimension ref="A1:I759"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26276,8 +26846,1111 @@
       </c>
       <c r="I710" s="0"/>
     </row>
+    <row r="711" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A711" s="25">
+        <v>5254</v>
+      </c>
+      <c r="B711" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C711" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D711" s="13"/>
+      <c r="E711" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F711" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="G711" s="16"/>
+      <c r="H711" s="14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I711" s="0"/>
+    </row>
+    <row r="712" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A712" s="25">
+        <v>5255</v>
+      </c>
+      <c r="B712" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C712" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D712" s="13"/>
+      <c r="E712" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F712" s="17"/>
+      <c r="G712" s="18"/>
+      <c r="H712" s="14" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I712" s="0"/>
+    </row>
+    <row r="713" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A713" s="25">
+        <v>5256</v>
+      </c>
+      <c r="B713" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C713" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D713" s="13"/>
+      <c r="E713" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F713" s="15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G713" s="16"/>
+      <c r="H713" s="14" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I713" s="0"/>
+    </row>
+    <row r="714" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A714" s="25">
+        <v>5257</v>
+      </c>
+      <c r="B714" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C714" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D714" s="13"/>
+      <c r="E714" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F714" s="17"/>
+      <c r="G714" s="18"/>
+      <c r="H714" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I714" s="0"/>
+    </row>
+    <row r="715" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A715" s="25">
+        <v>5258</v>
+      </c>
+      <c r="B715" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C715" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D715" s="13"/>
+      <c r="E715" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F715" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G715" s="16"/>
+      <c r="H715" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I715" s="0"/>
+    </row>
+    <row r="716" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A716" s="25">
+        <v>5259</v>
+      </c>
+      <c r="B716" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C716" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D716" s="13"/>
+      <c r="E716" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F716" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G716" s="16"/>
+      <c r="H716" s="14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I716" s="0"/>
+    </row>
+    <row r="717" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A717" s="25">
+        <v>5260</v>
+      </c>
+      <c r="B717" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C717" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D717" s="13"/>
+      <c r="E717" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F717" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G717" s="16"/>
+      <c r="H717" s="14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I717" s="0"/>
+    </row>
+    <row r="718" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A718" s="25">
+        <v>5261</v>
+      </c>
+      <c r="B718" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C718" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D718" s="13"/>
+      <c r="E718" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F718" s="17"/>
+      <c r="G718" s="18"/>
+      <c r="H718" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I718" s="0"/>
+    </row>
+    <row r="719" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A719" s="25">
+        <v>5262</v>
+      </c>
+      <c r="B719" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C719" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D719" s="13"/>
+      <c r="E719" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="F719" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G719" s="16"/>
+      <c r="H719" s="14" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I719" s="0"/>
+    </row>
+    <row r="720" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A720" s="25">
+        <v>5263</v>
+      </c>
+      <c r="B720" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C720" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D720" s="13"/>
+      <c r="E720" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="F720" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G720" s="16"/>
+      <c r="H720" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I720" s="0"/>
+    </row>
+    <row r="721" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A721" s="25">
+        <v>5264</v>
+      </c>
+      <c r="B721" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C721" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D721" s="13"/>
+      <c r="E721" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F721" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G721" s="16"/>
+      <c r="H721" s="14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I721" s="0"/>
+    </row>
+    <row r="722" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A722" s="25">
+        <v>5265</v>
+      </c>
+      <c r="B722" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C722" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D722" s="13"/>
+      <c r="E722" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F722" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G722" s="16"/>
+      <c r="H722" s="14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I722" s="0"/>
+    </row>
+    <row r="723" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A723" s="25">
+        <v>5266</v>
+      </c>
+      <c r="B723" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C723" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D723" s="13"/>
+      <c r="E723" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F723" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G723" s="16"/>
+      <c r="H723" s="14" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I723" s="0"/>
+    </row>
+    <row r="724" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A724" s="25">
+        <v>5267</v>
+      </c>
+      <c r="B724" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C724" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D724" s="13"/>
+      <c r="E724" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F724" s="15" t="s">
+        <v>997</v>
+      </c>
+      <c r="G724" s="16"/>
+      <c r="H724" s="14" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I724" s="0"/>
+    </row>
+    <row r="725" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A725" s="25">
+        <v>5268</v>
+      </c>
+      <c r="B725" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C725" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D725" s="13"/>
+      <c r="E725" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F725" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G725" s="16"/>
+      <c r="H725" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I725" s="0"/>
+    </row>
+    <row r="726" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A726" s="25">
+        <v>5269</v>
+      </c>
+      <c r="B726" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C726" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D726" s="13"/>
+      <c r="E726" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F726" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G726" s="16"/>
+      <c r="H726" s="14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I726" s="0"/>
+    </row>
+    <row r="727" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A727" s="25">
+        <v>5270</v>
+      </c>
+      <c r="B727" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C727" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D727" s="13"/>
+      <c r="E727" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F727" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G727" s="16"/>
+      <c r="H727" s="14" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I727" s="0"/>
+    </row>
+    <row r="728" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A728" s="25">
+        <v>5271</v>
+      </c>
+      <c r="B728" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C728" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D728" s="13"/>
+      <c r="E728" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F728" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G728" s="16"/>
+      <c r="H728" s="14" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I728" s="0"/>
+    </row>
+    <row r="729" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A729" s="25">
+        <v>5272</v>
+      </c>
+      <c r="B729" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C729" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D729" s="13"/>
+      <c r="E729" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F729" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G729" s="16"/>
+      <c r="H729" s="14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I729" s="0"/>
+    </row>
+    <row r="730" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A730" s="25">
+        <v>5273</v>
+      </c>
+      <c r="B730" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C730" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D730" s="13"/>
+      <c r="E730" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F730" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G730" s="16"/>
+      <c r="H730" s="14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I730" s="0"/>
+    </row>
+    <row r="731" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A731" s="25">
+        <v>5274</v>
+      </c>
+      <c r="B731" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C731" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D731" s="13"/>
+      <c r="E731" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F731" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G731" s="16"/>
+      <c r="H731" s="14" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I731" s="0"/>
+    </row>
+    <row r="732" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A732" s="25">
+        <v>5275</v>
+      </c>
+      <c r="B732" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C732" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D732" s="13"/>
+      <c r="E732" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F732" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G732" s="16"/>
+      <c r="H732" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I732" s="0"/>
+    </row>
+    <row r="733" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A733" s="25">
+        <v>5276</v>
+      </c>
+      <c r="B733" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C733" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D733" s="13"/>
+      <c r="E733" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F733" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G733" s="16"/>
+      <c r="H733" s="14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I733" s="0"/>
+    </row>
+    <row r="734" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A734" s="25">
+        <v>5277</v>
+      </c>
+      <c r="B734" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C734" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D734" s="13"/>
+      <c r="E734" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F734" s="17"/>
+      <c r="G734" s="18"/>
+      <c r="H734" s="14" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I734" s="0"/>
+    </row>
+    <row r="735" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A735" s="25">
+        <v>5278</v>
+      </c>
+      <c r="B735" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C735" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D735" s="13"/>
+      <c r="E735" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F735" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="G735" s="16"/>
+      <c r="H735" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I735" s="0"/>
+    </row>
+    <row r="736" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A736" s="25">
+        <v>5279</v>
+      </c>
+      <c r="B736" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C736" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D736" s="13"/>
+      <c r="E736" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F736" s="17"/>
+      <c r="G736" s="18"/>
+      <c r="H736" s="14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I736" s="0"/>
+    </row>
+    <row r="737" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A737" s="25">
+        <v>5280</v>
+      </c>
+      <c r="B737" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C737" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D737" s="13"/>
+      <c r="E737" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F737" s="15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G737" s="16"/>
+      <c r="H737" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I737" s="0"/>
+    </row>
+    <row r="738" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A738" s="25">
+        <v>5281</v>
+      </c>
+      <c r="B738" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C738" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D738" s="13"/>
+      <c r="E738" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F738" s="15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G738" s="16"/>
+      <c r="H738" s="14" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I738" s="0"/>
+    </row>
+    <row r="739" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A739" s="25">
+        <v>5282</v>
+      </c>
+      <c r="B739" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C739" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D739" s="13"/>
+      <c r="E739" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F739" s="15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G739" s="16"/>
+      <c r="H739" s="14" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I739" s="0"/>
+    </row>
+    <row r="740" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A740" s="25">
+        <v>5283</v>
+      </c>
+      <c r="B740" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C740" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D740" s="13"/>
+      <c r="E740" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F740" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="G740" s="16"/>
+      <c r="H740" s="14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I740" s="0"/>
+    </row>
+    <row r="741" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A741" s="25">
+        <v>5284</v>
+      </c>
+      <c r="B741" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C741" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D741" s="13"/>
+      <c r="E741" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F741" s="15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G741" s="16"/>
+      <c r="H741" s="14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I741" s="0"/>
+    </row>
+    <row r="742" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A742" s="25">
+        <v>5285</v>
+      </c>
+      <c r="B742" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C742" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D742" s="13"/>
+      <c r="E742" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F742" s="17"/>
+      <c r="G742" s="18"/>
+      <c r="H742" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I742" s="0"/>
+    </row>
+    <row r="743" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A743" s="25">
+        <v>5286</v>
+      </c>
+      <c r="B743" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C743" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D743" s="13"/>
+      <c r="E743" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F743" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G743" s="16"/>
+      <c r="H743" s="14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I743" s="0"/>
+    </row>
+    <row r="744" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A744" s="25">
+        <v>5287</v>
+      </c>
+      <c r="B744" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C744" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D744" s="13"/>
+      <c r="E744" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F744" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="G744" s="16"/>
+      <c r="H744" s="14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I744" s="0"/>
+    </row>
+    <row r="745" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A745" s="25">
+        <v>5288</v>
+      </c>
+      <c r="B745" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C745" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D745" s="13"/>
+      <c r="E745" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F745" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="G745" s="16"/>
+      <c r="H745" s="14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I745" s="0"/>
+    </row>
+    <row r="746" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A746" s="25">
+        <v>5289</v>
+      </c>
+      <c r="B746" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C746" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D746" s="13"/>
+      <c r="E746" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F746" s="17"/>
+      <c r="G746" s="18"/>
+      <c r="H746" s="14" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I746" s="0"/>
+    </row>
+    <row r="747" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A747" s="25">
+        <v>5290</v>
+      </c>
+      <c r="B747" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C747" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D747" s="13"/>
+      <c r="E747" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F747" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="G747" s="16"/>
+      <c r="H747" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I747" s="0"/>
+    </row>
+    <row r="748" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A748" s="25">
+        <v>5291</v>
+      </c>
+      <c r="B748" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C748" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D748" s="13"/>
+      <c r="E748" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F748" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G748" s="16"/>
+      <c r="H748" s="14" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I748" s="0"/>
+    </row>
+    <row r="749" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A749" s="25">
+        <v>5292</v>
+      </c>
+      <c r="B749" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C749" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D749" s="13"/>
+      <c r="E749" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F749" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="G749" s="16"/>
+      <c r="H749" s="14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I749" s="0"/>
+    </row>
+    <row r="750" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A750" s="25">
+        <v>5293</v>
+      </c>
+      <c r="B750" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C750" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D750" s="13"/>
+      <c r="E750" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F750" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="G750" s="16"/>
+      <c r="H750" s="14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I750" s="0"/>
+    </row>
+    <row r="751" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A751" s="25">
+        <v>5294</v>
+      </c>
+      <c r="B751" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C751" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D751" s="13"/>
+      <c r="E751" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F751" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="G751" s="16"/>
+      <c r="H751" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I751" s="0"/>
+    </row>
+    <row r="752" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A752" s="25">
+        <v>5295</v>
+      </c>
+      <c r="B752" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C752" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D752" s="13"/>
+      <c r="E752" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F752" s="17"/>
+      <c r="G752" s="18"/>
+      <c r="H752" s="14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I752" s="0"/>
+    </row>
+    <row r="753" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A753" s="25">
+        <v>5296</v>
+      </c>
+      <c r="B753" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C753" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D753" s="13"/>
+      <c r="E753" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F753" s="17"/>
+      <c r="G753" s="18"/>
+      <c r="H753" s="14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I753" s="0"/>
+    </row>
+    <row r="754" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A754" s="25">
+        <v>5297</v>
+      </c>
+      <c r="B754" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C754" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D754" s="13"/>
+      <c r="E754" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F754" s="17"/>
+      <c r="G754" s="18"/>
+      <c r="H754" s="14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I754" s="0"/>
+    </row>
+    <row r="755" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A755" s="25">
+        <v>5298</v>
+      </c>
+      <c r="B755" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C755" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D755" s="13"/>
+      <c r="E755" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F755" s="17"/>
+      <c r="G755" s="18"/>
+      <c r="H755" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I755" s="0"/>
+    </row>
+    <row r="756" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A756" s="25">
+        <v>5299</v>
+      </c>
+      <c r="B756" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C756" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D756" s="13"/>
+      <c r="E756" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F756" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="G756" s="16"/>
+      <c r="H756" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I756" s="0"/>
+    </row>
+    <row r="757" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A757" s="25">
+        <v>5300</v>
+      </c>
+      <c r="B757" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C757" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D757" s="13"/>
+      <c r="E757" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F757" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="G757" s="16"/>
+      <c r="H757" s="14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I757" s="0"/>
+    </row>
+    <row r="758" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A758" s="25">
+        <v>5301</v>
+      </c>
+      <c r="B758" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C758" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D758" s="13"/>
+      <c r="E758" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F758" s="17"/>
+      <c r="G758" s="18"/>
+      <c r="H758" s="14" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I758" s="0"/>
+    </row>
+    <row r="759" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A759" s="25">
+        <v>5302</v>
+      </c>
+      <c r="B759" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C759" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D759" s="13"/>
+      <c r="E759" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F759" s="15" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G759" s="16"/>
+      <c r="H759" s="14" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I759" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="711">
+  <mergeCells count="760">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="F2:G2"/>
@@ -26989,6 +28662,55 @@
     <mergeCell ref="F708:G708"/>
     <mergeCell ref="F709:G709"/>
     <mergeCell ref="F710:G710"/>
+    <mergeCell ref="F711:G711"/>
+    <mergeCell ref="F712:G712"/>
+    <mergeCell ref="F713:G713"/>
+    <mergeCell ref="F714:G714"/>
+    <mergeCell ref="F715:G715"/>
+    <mergeCell ref="F716:G716"/>
+    <mergeCell ref="F717:G717"/>
+    <mergeCell ref="F718:G718"/>
+    <mergeCell ref="F719:G719"/>
+    <mergeCell ref="F720:G720"/>
+    <mergeCell ref="F721:G721"/>
+    <mergeCell ref="F722:G722"/>
+    <mergeCell ref="F723:G723"/>
+    <mergeCell ref="F724:G724"/>
+    <mergeCell ref="F725:G725"/>
+    <mergeCell ref="F726:G726"/>
+    <mergeCell ref="F727:G727"/>
+    <mergeCell ref="F728:G728"/>
+    <mergeCell ref="F729:G729"/>
+    <mergeCell ref="F730:G730"/>
+    <mergeCell ref="F731:G731"/>
+    <mergeCell ref="F732:G732"/>
+    <mergeCell ref="F733:G733"/>
+    <mergeCell ref="F734:G734"/>
+    <mergeCell ref="F735:G735"/>
+    <mergeCell ref="F736:G736"/>
+    <mergeCell ref="F737:G737"/>
+    <mergeCell ref="F738:G738"/>
+    <mergeCell ref="F739:G739"/>
+    <mergeCell ref="F740:G740"/>
+    <mergeCell ref="F741:G741"/>
+    <mergeCell ref="F742:G742"/>
+    <mergeCell ref="F743:G743"/>
+    <mergeCell ref="F744:G744"/>
+    <mergeCell ref="F745:G745"/>
+    <mergeCell ref="F746:G746"/>
+    <mergeCell ref="F747:G747"/>
+    <mergeCell ref="F748:G748"/>
+    <mergeCell ref="F749:G749"/>
+    <mergeCell ref="F750:G750"/>
+    <mergeCell ref="F751:G751"/>
+    <mergeCell ref="F752:G752"/>
+    <mergeCell ref="F753:G753"/>
+    <mergeCell ref="F754:G754"/>
+    <mergeCell ref="F755:G755"/>
+    <mergeCell ref="F756:G756"/>
+    <mergeCell ref="F757:G757"/>
+    <mergeCell ref="F758:G758"/>
+    <mergeCell ref="F759:G759"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work/23_aichi2.xlsx
+++ b/work/23_aichi2.xlsx
@@ -32,7 +32,7 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">令和2年9月27日現在</t>
+      <t xml:space="preserve">令和2年9月28日現在</t>
     </r>
   </si>
   <si>
@@ -10633,6 +10633,236 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">名古屋市発表2855</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9月28日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5298と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1951</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1952</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2856</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2857</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2858</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2859</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2860</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2861</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2862</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2863</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2864</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2865</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2866</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2867</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2868</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5197と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2869</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5245と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2870</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2871</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2872</t>
     </r>
   </si>
 </sst>
@@ -11115,7 +11345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I759"/>
+  <dimension ref="A1:I778"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27949,8 +28179,439 @@
       </c>
       <c r="I759" s="0"/>
     </row>
+    <row r="760" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A760" s="25">
+        <v>5303</v>
+      </c>
+      <c r="B760" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C760" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D760" s="13"/>
+      <c r="E760" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F760" s="15" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G760" s="16"/>
+      <c r="H760" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I760" s="0"/>
+    </row>
+    <row r="761" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A761" s="25">
+        <v>5304</v>
+      </c>
+      <c r="B761" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C761" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D761" s="13"/>
+      <c r="E761" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F761" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="G761" s="16"/>
+      <c r="H761" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I761" s="0"/>
+    </row>
+    <row r="762" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A762" s="25">
+        <v>5305</v>
+      </c>
+      <c r="B762" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C762" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D762" s="13"/>
+      <c r="E762" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F762" s="17"/>
+      <c r="G762" s="18"/>
+      <c r="H762" s="14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I762" s="0"/>
+    </row>
+    <row r="763" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A763" s="25">
+        <v>5306</v>
+      </c>
+      <c r="B763" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C763" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D763" s="13"/>
+      <c r="E763" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F763" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G763" s="16"/>
+      <c r="H763" s="14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I763" s="0"/>
+    </row>
+    <row r="764" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A764" s="25">
+        <v>5307</v>
+      </c>
+      <c r="B764" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C764" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D764" s="13"/>
+      <c r="E764" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F764" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G764" s="16"/>
+      <c r="H764" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I764" s="0"/>
+    </row>
+    <row r="765" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A765" s="25">
+        <v>5308</v>
+      </c>
+      <c r="B765" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C765" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D765" s="13"/>
+      <c r="E765" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F765" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G765" s="16"/>
+      <c r="H765" s="14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I765" s="0"/>
+    </row>
+    <row r="766" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A766" s="25">
+        <v>5309</v>
+      </c>
+      <c r="B766" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C766" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D766" s="13"/>
+      <c r="E766" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F766" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G766" s="16"/>
+      <c r="H766" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I766" s="0"/>
+    </row>
+    <row r="767" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A767" s="25">
+        <v>5310</v>
+      </c>
+      <c r="B767" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C767" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D767" s="13"/>
+      <c r="E767" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F767" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G767" s="16"/>
+      <c r="H767" s="14" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I767" s="0"/>
+    </row>
+    <row r="768" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A768" s="25">
+        <v>5311</v>
+      </c>
+      <c r="B768" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C768" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D768" s="13"/>
+      <c r="E768" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F768" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G768" s="16"/>
+      <c r="H768" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I768" s="0"/>
+    </row>
+    <row r="769" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A769" s="25">
+        <v>5312</v>
+      </c>
+      <c r="B769" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C769" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D769" s="13"/>
+      <c r="E769" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F769" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G769" s="16"/>
+      <c r="H769" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I769" s="0"/>
+    </row>
+    <row r="770" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A770" s="25">
+        <v>5313</v>
+      </c>
+      <c r="B770" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C770" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D770" s="13"/>
+      <c r="E770" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F770" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G770" s="16"/>
+      <c r="H770" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I770" s="0"/>
+    </row>
+    <row r="771" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A771" s="25">
+        <v>5314</v>
+      </c>
+      <c r="B771" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C771" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D771" s="13"/>
+      <c r="E771" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F771" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G771" s="16"/>
+      <c r="H771" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I771" s="0"/>
+    </row>
+    <row r="772" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A772" s="25">
+        <v>5315</v>
+      </c>
+      <c r="B772" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C772" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D772" s="13"/>
+      <c r="E772" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F772" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G772" s="16"/>
+      <c r="H772" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I772" s="0"/>
+    </row>
+    <row r="773" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A773" s="25">
+        <v>5316</v>
+      </c>
+      <c r="B773" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C773" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D773" s="13"/>
+      <c r="E773" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F773" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G773" s="16"/>
+      <c r="H773" s="14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I773" s="0"/>
+    </row>
+    <row r="774" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A774" s="25">
+        <v>5317</v>
+      </c>
+      <c r="B774" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C774" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D774" s="13"/>
+      <c r="E774" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F774" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G774" s="16"/>
+      <c r="H774" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I774" s="0"/>
+    </row>
+    <row r="775" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A775" s="25">
+        <v>5318</v>
+      </c>
+      <c r="B775" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C775" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D775" s="13"/>
+      <c r="E775" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F775" s="15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G775" s="16"/>
+      <c r="H775" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I775" s="0"/>
+    </row>
+    <row r="776" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A776" s="25">
+        <v>5319</v>
+      </c>
+      <c r="B776" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C776" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D776" s="13"/>
+      <c r="E776" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F776" s="15" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G776" s="16"/>
+      <c r="H776" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I776" s="0"/>
+    </row>
+    <row r="777" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A777" s="25">
+        <v>5320</v>
+      </c>
+      <c r="B777" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C777" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D777" s="13"/>
+      <c r="E777" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F777" s="17"/>
+      <c r="G777" s="18"/>
+      <c r="H777" s="14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I777" s="0"/>
+    </row>
+    <row r="778" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A778" s="25">
+        <v>5321</v>
+      </c>
+      <c r="B778" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C778" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D778" s="13"/>
+      <c r="E778" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F778" s="17"/>
+      <c r="G778" s="18"/>
+      <c r="H778" s="14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I778" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="760">
+  <mergeCells count="779">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="F2:G2"/>
@@ -28711,6 +29372,25 @@
     <mergeCell ref="F757:G757"/>
     <mergeCell ref="F758:G758"/>
     <mergeCell ref="F759:G759"/>
+    <mergeCell ref="F760:G760"/>
+    <mergeCell ref="F761:G761"/>
+    <mergeCell ref="F762:G762"/>
+    <mergeCell ref="F763:G763"/>
+    <mergeCell ref="F764:G764"/>
+    <mergeCell ref="F765:G765"/>
+    <mergeCell ref="F766:G766"/>
+    <mergeCell ref="F767:G767"/>
+    <mergeCell ref="F768:G768"/>
+    <mergeCell ref="F769:G769"/>
+    <mergeCell ref="F770:G770"/>
+    <mergeCell ref="F771:G771"/>
+    <mergeCell ref="F772:G772"/>
+    <mergeCell ref="F773:G773"/>
+    <mergeCell ref="F774:G774"/>
+    <mergeCell ref="F775:G775"/>
+    <mergeCell ref="F776:G776"/>
+    <mergeCell ref="F777:G777"/>
+    <mergeCell ref="F778:G778"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work/23_aichi2.xlsx
+++ b/work/23_aichi2.xlsx
@@ -32,7 +32,7 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">令和2年9月28日現在</t>
+      <t xml:space="preserve">令和2年9月29日現在</t>
     </r>
   </si>
   <si>
@@ -9172,6 +9172,126 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">9月25日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2780</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2781</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5186と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2782</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2783</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.4794と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2784</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2785</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2786</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1923</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1924</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">No.5143と接触</t>
     </r>
   </si>
@@ -9182,126 +9302,6 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">名古屋市発表2780</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">名古屋市発表2781</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">No.5186と接触</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">名古屋市発表2782</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">名古屋市発表2783</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">No.4794と接触</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">名古屋市発表2784</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">名古屋市発表2785</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">名古屋市発表2786</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">9月25日</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">本県発表1923</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">本県発表1924</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">本県発表1925</t>
     </r>
   </si>
@@ -10863,6 +10863,386 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">名古屋市発表2872</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9月29日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1953</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5241と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1954</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5191と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1955</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5261と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1956</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1957</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表193</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表194</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5235と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表195</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表196</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表197</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表198</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表199</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5302と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2873</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5270と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2874</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5272と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2875</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2876</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2877</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5269と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2878</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">大阪府・兵庫県滞在</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2879</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2880</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2881</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2882</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2883</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2884</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2885</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2886</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2887</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2888</t>
     </r>
   </si>
 </sst>
@@ -11345,7 +11725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I778"/>
+  <dimension ref="A1:I806"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11356,8 +11736,8 @@
     <col min="3" max="3" customWidth="1" width="16.666667"/>
     <col min="4" max="4" customWidth="1" width="10.666667"/>
     <col min="5" max="5" customWidth="1" width="18.888889"/>
-    <col min="6" max="6" customWidth="1" width="21.333333"/>
-    <col min="7" max="7" customWidth="1" width="3.777778"/>
+    <col min="6" max="6" customWidth="1" width="21.111111"/>
+    <col min="7" max="7" customWidth="1" width="4"/>
     <col min="8" max="8" customWidth="1" width="20.888889"/>
     <col min="9" max="9" customWidth="1" width="2.666667"/>
   </cols>
@@ -25243,7 +25623,7 @@
         <v>884</v>
       </c>
       <c r="C628" s="12" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D628" s="13"/>
       <c r="E628" s="14" t="s">
@@ -25549,22 +25929,20 @@
     </row>
     <row r="642" spans="1:9" ht="21.00" customHeight="1">
       <c r="A642" s="25">
-        <v>5185</v>
+        <v>5206</v>
       </c>
       <c r="B642" s="11" t="s">
-        <v>884</v>
+        <v>915</v>
       </c>
       <c r="C642" s="12" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D642" s="13"/>
       <c r="E642" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F642" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="G642" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="F642" s="17"/>
+      <c r="G642" s="18"/>
       <c r="H642" s="14" t="s">
         <v>916</v>
       </c>
@@ -25705,7 +26083,7 @@
         <v>5192</v>
       </c>
       <c r="B649" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C649" s="26" t="s">
         <v>28</v>
@@ -25717,7 +26095,7 @@
       <c r="F649" s="17"/>
       <c r="G649" s="18"/>
       <c r="H649" s="14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I649" s="0"/>
     </row>
@@ -25726,7 +26104,7 @@
         <v>5193</v>
       </c>
       <c r="B650" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C650" s="26" t="s">
         <v>42</v>
@@ -25738,7 +26116,7 @@
       <c r="F650" s="17"/>
       <c r="G650" s="18"/>
       <c r="H650" s="14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I650" s="0"/>
     </row>
@@ -25747,7 +26125,7 @@
         <v>5194</v>
       </c>
       <c r="B651" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C651" s="26" t="s">
         <v>63</v>
@@ -25757,7 +26135,7 @@
         <v>11</v>
       </c>
       <c r="F651" s="15" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="G651" s="16"/>
       <c r="H651" s="14" t="s">
@@ -25770,7 +26148,7 @@
         <v>5195</v>
       </c>
       <c r="B652" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C652" s="26" t="s">
         <v>23</v>
@@ -25791,7 +26169,7 @@
         <v>5196</v>
       </c>
       <c r="B653" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C653" s="26" t="s">
         <v>47</v>
@@ -25814,7 +26192,7 @@
         <v>5197</v>
       </c>
       <c r="B654" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C654" s="26" t="s">
         <v>23</v>
@@ -25837,7 +26215,7 @@
         <v>5198</v>
       </c>
       <c r="B655" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C655" s="26" t="s">
         <v>32</v>
@@ -25860,7 +26238,7 @@
         <v>5199</v>
       </c>
       <c r="B656" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C656" s="26" t="s">
         <v>57</v>
@@ -25881,7 +26259,7 @@
         <v>5200</v>
       </c>
       <c r="B657" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C657" s="26" t="s">
         <v>17</v>
@@ -25904,7 +26282,7 @@
         <v>5201</v>
       </c>
       <c r="B658" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C658" s="26" t="s">
         <v>42</v>
@@ -25925,7 +26303,7 @@
         <v>5202</v>
       </c>
       <c r="B659" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C659" s="26" t="s">
         <v>23</v>
@@ -25946,7 +26324,7 @@
         <v>5203</v>
       </c>
       <c r="B660" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C660" s="26" t="s">
         <v>14</v>
@@ -25969,7 +26347,7 @@
         <v>5204</v>
       </c>
       <c r="B661" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C661" s="26" t="s">
         <v>32</v>
@@ -25992,7 +26370,7 @@
         <v>5205</v>
       </c>
       <c r="B662" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C662" s="26" t="s">
         <v>57</v>
@@ -26012,20 +26390,22 @@
     </row>
     <row r="663" spans="1:9" ht="21.00" customHeight="1">
       <c r="A663" s="25">
-        <v>5206</v>
+        <v>5185</v>
       </c>
       <c r="B663" s="11" t="s">
-        <v>925</v>
+        <v>884</v>
       </c>
       <c r="C663" s="26" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D663" s="13"/>
       <c r="E663" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F663" s="17"/>
-      <c r="G663" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="F663" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="G663" s="16"/>
       <c r="H663" s="14" t="s">
         <v>944</v>
       </c>
@@ -26036,7 +26416,7 @@
         <v>5207</v>
       </c>
       <c r="B664" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C664" s="26" t="s">
         <v>57</v>
@@ -26059,7 +26439,7 @@
         <v>5208</v>
       </c>
       <c r="B665" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C665" s="26" t="s">
         <v>32</v>
@@ -26082,7 +26462,7 @@
         <v>5209</v>
       </c>
       <c r="B666" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C666" s="26" t="s">
         <v>20</v>
@@ -26105,7 +26485,7 @@
         <v>5210</v>
       </c>
       <c r="B667" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C667" s="26" t="s">
         <v>47</v>
@@ -26126,7 +26506,7 @@
         <v>5211</v>
       </c>
       <c r="B668" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C668" s="26" t="s">
         <v>23</v>
@@ -26149,7 +26529,7 @@
         <v>5212</v>
       </c>
       <c r="B669" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C669" s="26" t="s">
         <v>142</v>
@@ -26172,7 +26552,7 @@
         <v>5213</v>
       </c>
       <c r="B670" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C670" s="26" t="s">
         <v>42</v>
@@ -26193,7 +26573,7 @@
         <v>5214</v>
       </c>
       <c r="B671" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C671" s="26" t="s">
         <v>47</v>
@@ -26214,7 +26594,7 @@
         <v>5215</v>
       </c>
       <c r="B672" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C672" s="26" t="s">
         <v>42</v>
@@ -26237,7 +26617,7 @@
         <v>5216</v>
       </c>
       <c r="B673" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C673" s="26" t="s">
         <v>20</v>
@@ -26258,7 +26638,7 @@
         <v>5217</v>
       </c>
       <c r="B674" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C674" s="26" t="s">
         <v>47</v>
@@ -26279,7 +26659,7 @@
         <v>5218</v>
       </c>
       <c r="B675" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C675" s="26" t="s">
         <v>39</v>
@@ -26302,7 +26682,7 @@
         <v>5219</v>
       </c>
       <c r="B676" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C676" s="26" t="s">
         <v>39</v>
@@ -26325,7 +26705,7 @@
         <v>5220</v>
       </c>
       <c r="B677" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C677" s="26" t="s">
         <v>39</v>
@@ -26348,7 +26728,7 @@
         <v>5221</v>
       </c>
       <c r="B678" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C678" s="26" t="s">
         <v>23</v>
@@ -26371,7 +26751,7 @@
         <v>5222</v>
       </c>
       <c r="B679" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C679" s="26" t="s">
         <v>14</v>
@@ -26394,7 +26774,7 @@
         <v>5223</v>
       </c>
       <c r="B680" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C680" s="26" t="s">
         <v>63</v>
@@ -26415,7 +26795,7 @@
         <v>5224</v>
       </c>
       <c r="B681" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C681" s="26" t="s">
         <v>57</v>
@@ -26438,7 +26818,7 @@
         <v>5225</v>
       </c>
       <c r="B682" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C682" s="26" t="s">
         <v>57</v>
@@ -26461,7 +26841,7 @@
         <v>5226</v>
       </c>
       <c r="B683" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C683" s="26" t="s">
         <v>42</v>
@@ -26482,7 +26862,7 @@
         <v>5227</v>
       </c>
       <c r="B684" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C684" s="26" t="s">
         <v>47</v>
@@ -26505,7 +26885,7 @@
         <v>5228</v>
       </c>
       <c r="B685" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C685" s="26" t="s">
         <v>81</v>
@@ -26526,7 +26906,7 @@
         <v>5229</v>
       </c>
       <c r="B686" s="11" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C686" s="26" t="s">
         <v>81</v>
@@ -26850,7 +27230,7 @@
         <v>58</v>
       </c>
       <c r="F700" s="15" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="G700" s="16"/>
       <c r="H700" s="14" t="s">
@@ -28610,8 +28990,630 @@
       </c>
       <c r="I778" s="0"/>
     </row>
+    <row r="779" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A779" s="25">
+        <v>5322</v>
+      </c>
+      <c r="B779" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C779" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D779" s="13"/>
+      <c r="E779" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F779" s="17"/>
+      <c r="G779" s="18"/>
+      <c r="H779" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I779" s="0"/>
+    </row>
+    <row r="780" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A780" s="25">
+        <v>5323</v>
+      </c>
+      <c r="B780" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C780" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D780" s="13"/>
+      <c r="E780" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F780" s="15" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G780" s="16"/>
+      <c r="H780" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I780" s="0"/>
+    </row>
+    <row r="781" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A781" s="25">
+        <v>5324</v>
+      </c>
+      <c r="B781" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C781" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D781" s="13"/>
+      <c r="E781" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F781" s="15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G781" s="16"/>
+      <c r="H781" s="14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I781" s="0"/>
+    </row>
+    <row r="782" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A782" s="25">
+        <v>5325</v>
+      </c>
+      <c r="B782" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C782" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D782" s="13"/>
+      <c r="E782" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F782" s="15" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G782" s="16"/>
+      <c r="H782" s="14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I782" s="0"/>
+    </row>
+    <row r="783" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A783" s="25">
+        <v>5326</v>
+      </c>
+      <c r="B783" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C783" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D783" s="13"/>
+      <c r="E783" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F783" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G783" s="16"/>
+      <c r="H783" s="14" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I783" s="0"/>
+    </row>
+    <row r="784" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A784" s="25">
+        <v>5327</v>
+      </c>
+      <c r="B784" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C784" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D784" s="13"/>
+      <c r="E784" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F784" s="17"/>
+      <c r="G784" s="18"/>
+      <c r="H784" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I784" s="0"/>
+    </row>
+    <row r="785" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A785" s="25">
+        <v>5328</v>
+      </c>
+      <c r="B785" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C785" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D785" s="13"/>
+      <c r="E785" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F785" s="17"/>
+      <c r="G785" s="18"/>
+      <c r="H785" s="14" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I785" s="0"/>
+    </row>
+    <row r="786" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A786" s="25">
+        <v>5329</v>
+      </c>
+      <c r="B786" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C786" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D786" s="13"/>
+      <c r="E786" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F786" s="15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G786" s="16"/>
+      <c r="H786" s="14" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I786" s="0"/>
+    </row>
+    <row r="787" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A787" s="25">
+        <v>5330</v>
+      </c>
+      <c r="B787" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C787" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D787" s="13"/>
+      <c r="E787" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F787" s="15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G787" s="16"/>
+      <c r="H787" s="14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I787" s="0"/>
+    </row>
+    <row r="788" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A788" s="25">
+        <v>5331</v>
+      </c>
+      <c r="B788" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C788" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D788" s="13"/>
+      <c r="E788" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F788" s="15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G788" s="16"/>
+      <c r="H788" s="14" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I788" s="0"/>
+    </row>
+    <row r="789" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A789" s="25">
+        <v>5332</v>
+      </c>
+      <c r="B789" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C789" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D789" s="13"/>
+      <c r="E789" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F789" s="15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G789" s="16"/>
+      <c r="H789" s="14" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I789" s="0"/>
+    </row>
+    <row r="790" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A790" s="25">
+        <v>5333</v>
+      </c>
+      <c r="B790" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C790" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D790" s="13"/>
+      <c r="E790" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F790" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G790" s="16"/>
+      <c r="H790" s="14" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I790" s="0"/>
+    </row>
+    <row r="791" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A791" s="25">
+        <v>5334</v>
+      </c>
+      <c r="B791" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C791" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D791" s="13"/>
+      <c r="E791" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F791" s="15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G791" s="16"/>
+      <c r="H791" s="14" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I791" s="0"/>
+    </row>
+    <row r="792" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A792" s="25">
+        <v>5335</v>
+      </c>
+      <c r="B792" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C792" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D792" s="13"/>
+      <c r="E792" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F792" s="15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G792" s="16"/>
+      <c r="H792" s="14" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I792" s="0"/>
+    </row>
+    <row r="793" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A793" s="25">
+        <v>5336</v>
+      </c>
+      <c r="B793" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C793" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D793" s="13"/>
+      <c r="E793" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F793" s="15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G793" s="16"/>
+      <c r="H793" s="14" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I793" s="0"/>
+    </row>
+    <row r="794" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A794" s="25">
+        <v>5337</v>
+      </c>
+      <c r="B794" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C794" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D794" s="13"/>
+      <c r="E794" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F794" s="15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G794" s="16"/>
+      <c r="H794" s="14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I794" s="0"/>
+    </row>
+    <row r="795" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A795" s="25">
+        <v>5338</v>
+      </c>
+      <c r="B795" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C795" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D795" s="13"/>
+      <c r="E795" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F795" s="15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G795" s="16"/>
+      <c r="H795" s="14" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I795" s="0"/>
+    </row>
+    <row r="796" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A796" s="25">
+        <v>5339</v>
+      </c>
+      <c r="B796" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C796" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D796" s="13"/>
+      <c r="E796" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F796" s="15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G796" s="16"/>
+      <c r="H796" s="14" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I796" s="0"/>
+    </row>
+    <row r="797" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A797" s="25">
+        <v>5340</v>
+      </c>
+      <c r="B797" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C797" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D797" s="13"/>
+      <c r="E797" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F797" s="15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G797" s="16"/>
+      <c r="H797" s="14" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I797" s="0"/>
+    </row>
+    <row r="798" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A798" s="25">
+        <v>5341</v>
+      </c>
+      <c r="B798" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C798" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D798" s="13"/>
+      <c r="E798" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F798" s="17"/>
+      <c r="G798" s="18"/>
+      <c r="H798" s="14" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I798" s="0"/>
+    </row>
+    <row r="799" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A799" s="25">
+        <v>5342</v>
+      </c>
+      <c r="B799" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C799" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D799" s="13"/>
+      <c r="E799" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F799" s="17"/>
+      <c r="G799" s="18"/>
+      <c r="H799" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I799" s="0"/>
+    </row>
+    <row r="800" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A800" s="25">
+        <v>5343</v>
+      </c>
+      <c r="B800" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C800" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D800" s="13"/>
+      <c r="E800" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F800" s="17"/>
+      <c r="G800" s="18"/>
+      <c r="H800" s="14" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I800" s="0"/>
+    </row>
+    <row r="801" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A801" s="25">
+        <v>5344</v>
+      </c>
+      <c r="B801" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C801" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D801" s="13"/>
+      <c r="E801" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F801" s="17"/>
+      <c r="G801" s="18"/>
+      <c r="H801" s="14" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I801" s="0"/>
+    </row>
+    <row r="802" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A802" s="25">
+        <v>5345</v>
+      </c>
+      <c r="B802" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C802" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D802" s="13"/>
+      <c r="E802" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F802" s="17"/>
+      <c r="G802" s="18"/>
+      <c r="H802" s="14" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I802" s="0"/>
+    </row>
+    <row r="803" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A803" s="25">
+        <v>5346</v>
+      </c>
+      <c r="B803" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C803" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D803" s="13"/>
+      <c r="E803" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F803" s="17"/>
+      <c r="G803" s="18"/>
+      <c r="H803" s="14" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I803" s="0"/>
+    </row>
+    <row r="804" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A804" s="25">
+        <v>5347</v>
+      </c>
+      <c r="B804" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C804" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D804" s="13"/>
+      <c r="E804" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F804" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="G804" s="16"/>
+      <c r="H804" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I804" s="0"/>
+    </row>
+    <row r="805" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A805" s="25">
+        <v>5348</v>
+      </c>
+      <c r="B805" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C805" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D805" s="13"/>
+      <c r="E805" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F805" s="17"/>
+      <c r="G805" s="18"/>
+      <c r="H805" s="14" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I805" s="0"/>
+    </row>
+    <row r="806" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A806" s="25">
+        <v>5349</v>
+      </c>
+      <c r="B806" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C806" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D806" s="13"/>
+      <c r="E806" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F806" s="17"/>
+      <c r="G806" s="18"/>
+      <c r="H806" s="14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I806" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="779">
+  <mergeCells count="807">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="F2:G2"/>
@@ -29391,6 +30393,34 @@
     <mergeCell ref="F776:G776"/>
     <mergeCell ref="F777:G777"/>
     <mergeCell ref="F778:G778"/>
+    <mergeCell ref="F779:G779"/>
+    <mergeCell ref="F780:G780"/>
+    <mergeCell ref="F781:G781"/>
+    <mergeCell ref="F782:G782"/>
+    <mergeCell ref="F783:G783"/>
+    <mergeCell ref="F784:G784"/>
+    <mergeCell ref="F785:G785"/>
+    <mergeCell ref="F786:G786"/>
+    <mergeCell ref="F787:G787"/>
+    <mergeCell ref="F788:G788"/>
+    <mergeCell ref="F789:G789"/>
+    <mergeCell ref="F790:G790"/>
+    <mergeCell ref="F791:G791"/>
+    <mergeCell ref="F792:G792"/>
+    <mergeCell ref="F793:G793"/>
+    <mergeCell ref="F794:G794"/>
+    <mergeCell ref="F795:G795"/>
+    <mergeCell ref="F796:G796"/>
+    <mergeCell ref="F797:G797"/>
+    <mergeCell ref="F798:G798"/>
+    <mergeCell ref="F799:G799"/>
+    <mergeCell ref="F800:G800"/>
+    <mergeCell ref="F801:G801"/>
+    <mergeCell ref="F802:G802"/>
+    <mergeCell ref="F803:G803"/>
+    <mergeCell ref="F804:G804"/>
+    <mergeCell ref="F805:G805"/>
+    <mergeCell ref="F806:G806"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work/23_aichi2.xlsx
+++ b/work/23_aichi2.xlsx
@@ -32,7 +32,7 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">令和2年9月29日現在</t>
+      <t xml:space="preserve">令和2年9月30日現在</t>
     </r>
   </si>
   <si>
@@ -11243,6 +11243,336 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">名古屋市発表2888</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9月30日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1958</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5255と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1959</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5291と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1960</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5323と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1961</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1962</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1963</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1964</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊田市発表231</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊田市発表232</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">岡崎市発表201</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2889</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5289と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2890</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2891</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5216と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2892</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2893</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2894</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2895</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2896</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2897</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2898</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2899</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2900</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2901</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">神奈川県滞在</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2902</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2903</t>
     </r>
   </si>
 </sst>
@@ -11725,7 +12055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I806"/>
+  <dimension ref="A1:I832"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11736,8 +12066,8 @@
     <col min="3" max="3" customWidth="1" width="16.666667"/>
     <col min="4" max="4" customWidth="1" width="10.666667"/>
     <col min="5" max="5" customWidth="1" width="18.888889"/>
-    <col min="6" max="6" customWidth="1" width="21.111111"/>
-    <col min="7" max="7" customWidth="1" width="4"/>
+    <col min="6" max="6" customWidth="1" width="21.333333"/>
+    <col min="7" max="7" customWidth="1" width="3.777778"/>
     <col min="8" max="8" customWidth="1" width="20.888889"/>
     <col min="9" max="9" customWidth="1" width="2.666667"/>
   </cols>
@@ -29612,8 +29942,576 @@
       </c>
       <c r="I806" s="0"/>
     </row>
+    <row r="807" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A807" s="25">
+        <v>5350</v>
+      </c>
+      <c r="B807" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C807" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D807" s="13"/>
+      <c r="E807" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="F807" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G807" s="16"/>
+      <c r="H807" s="14" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I807" s="0"/>
+    </row>
+    <row r="808" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A808" s="25">
+        <v>5351</v>
+      </c>
+      <c r="B808" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C808" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D808" s="13"/>
+      <c r="E808" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F808" s="15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G808" s="16"/>
+      <c r="H808" s="14" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I808" s="0"/>
+    </row>
+    <row r="809" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A809" s="25">
+        <v>5352</v>
+      </c>
+      <c r="B809" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C809" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D809" s="13"/>
+      <c r="E809" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F809" s="15" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G809" s="16"/>
+      <c r="H809" s="14" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I809" s="0"/>
+    </row>
+    <row r="810" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A810" s="25">
+        <v>5353</v>
+      </c>
+      <c r="B810" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C810" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D810" s="13"/>
+      <c r="E810" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F810" s="15" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G810" s="16"/>
+      <c r="H810" s="14" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I810" s="0"/>
+    </row>
+    <row r="811" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A811" s="25">
+        <v>5354</v>
+      </c>
+      <c r="B811" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C811" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D811" s="13"/>
+      <c r="E811" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F811" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="G811" s="16"/>
+      <c r="H811" s="14" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I811" s="0"/>
+    </row>
+    <row r="812" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A812" s="25">
+        <v>5355</v>
+      </c>
+      <c r="B812" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C812" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D812" s="13"/>
+      <c r="E812" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F812" s="17"/>
+      <c r="G812" s="18"/>
+      <c r="H812" s="14" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I812" s="0"/>
+    </row>
+    <row r="813" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A813" s="25">
+        <v>5356</v>
+      </c>
+      <c r="B813" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C813" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D813" s="13"/>
+      <c r="E813" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F813" s="17"/>
+      <c r="G813" s="18"/>
+      <c r="H813" s="14" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I813" s="0"/>
+    </row>
+    <row r="814" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A814" s="25">
+        <v>5357</v>
+      </c>
+      <c r="B814" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C814" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D814" s="13"/>
+      <c r="E814" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F814" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="G814" s="16"/>
+      <c r="H814" s="14" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I814" s="0"/>
+    </row>
+    <row r="815" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A815" s="25">
+        <v>5358</v>
+      </c>
+      <c r="B815" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C815" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D815" s="13"/>
+      <c r="E815" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F815" s="17"/>
+      <c r="G815" s="18"/>
+      <c r="H815" s="14" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I815" s="0"/>
+    </row>
+    <row r="816" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A816" s="25">
+        <v>5359</v>
+      </c>
+      <c r="B816" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C816" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D816" s="13"/>
+      <c r="E816" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F816" s="15" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G816" s="16"/>
+      <c r="H816" s="14" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I816" s="0"/>
+    </row>
+    <row r="817" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A817" s="25">
+        <v>5360</v>
+      </c>
+      <c r="B817" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C817" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D817" s="13"/>
+      <c r="E817" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F817" s="17"/>
+      <c r="G817" s="18"/>
+      <c r="H817" s="14" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I817" s="0"/>
+    </row>
+    <row r="818" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A818" s="25">
+        <v>5361</v>
+      </c>
+      <c r="B818" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C818" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D818" s="13"/>
+      <c r="E818" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F818" s="17"/>
+      <c r="G818" s="18"/>
+      <c r="H818" s="14" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I818" s="0"/>
+    </row>
+    <row r="819" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A819" s="25">
+        <v>5362</v>
+      </c>
+      <c r="B819" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C819" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D819" s="13"/>
+      <c r="E819" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F819" s="15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G819" s="16"/>
+      <c r="H819" s="14" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I819" s="0"/>
+    </row>
+    <row r="820" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A820" s="25">
+        <v>5363</v>
+      </c>
+      <c r="B820" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C820" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D820" s="13"/>
+      <c r="E820" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F820" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="G820" s="16"/>
+      <c r="H820" s="14" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I820" s="0"/>
+    </row>
+    <row r="821" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A821" s="25">
+        <v>5364</v>
+      </c>
+      <c r="B821" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C821" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D821" s="13"/>
+      <c r="E821" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F821" s="15" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G821" s="16"/>
+      <c r="H821" s="14" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I821" s="0"/>
+    </row>
+    <row r="822" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A822" s="25">
+        <v>5365</v>
+      </c>
+      <c r="B822" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C822" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D822" s="13"/>
+      <c r="E822" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F822" s="17"/>
+      <c r="G822" s="18"/>
+      <c r="H822" s="14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I822" s="0"/>
+    </row>
+    <row r="823" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A823" s="25">
+        <v>5366</v>
+      </c>
+      <c r="B823" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C823" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D823" s="13"/>
+      <c r="E823" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F823" s="17"/>
+      <c r="G823" s="18"/>
+      <c r="H823" s="14" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I823" s="0"/>
+    </row>
+    <row r="824" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A824" s="25">
+        <v>5367</v>
+      </c>
+      <c r="B824" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C824" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D824" s="13"/>
+      <c r="E824" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F824" s="17"/>
+      <c r="G824" s="18"/>
+      <c r="H824" s="14" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I824" s="0"/>
+    </row>
+    <row r="825" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A825" s="25">
+        <v>5368</v>
+      </c>
+      <c r="B825" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C825" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D825" s="13"/>
+      <c r="E825" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F825" s="17"/>
+      <c r="G825" s="18"/>
+      <c r="H825" s="14" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I825" s="0"/>
+    </row>
+    <row r="826" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A826" s="25">
+        <v>5369</v>
+      </c>
+      <c r="B826" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C826" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D826" s="13"/>
+      <c r="E826" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F826" s="17"/>
+      <c r="G826" s="18"/>
+      <c r="H826" s="14" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I826" s="0"/>
+    </row>
+    <row r="827" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A827" s="25">
+        <v>5370</v>
+      </c>
+      <c r="B827" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C827" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D827" s="13"/>
+      <c r="E827" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F827" s="17"/>
+      <c r="G827" s="18"/>
+      <c r="H827" s="14" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I827" s="0"/>
+    </row>
+    <row r="828" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A828" s="25">
+        <v>5371</v>
+      </c>
+      <c r="B828" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C828" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D828" s="13"/>
+      <c r="E828" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F828" s="17"/>
+      <c r="G828" s="18"/>
+      <c r="H828" s="14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I828" s="0"/>
+    </row>
+    <row r="829" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A829" s="25">
+        <v>5372</v>
+      </c>
+      <c r="B829" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C829" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D829" s="13"/>
+      <c r="E829" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F829" s="17"/>
+      <c r="G829" s="18"/>
+      <c r="H829" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I829" s="0"/>
+    </row>
+    <row r="830" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A830" s="25">
+        <v>5373</v>
+      </c>
+      <c r="B830" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C830" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D830" s="13"/>
+      <c r="E830" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F830" s="17"/>
+      <c r="G830" s="18"/>
+      <c r="H830" s="14" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I830" s="0"/>
+    </row>
+    <row r="831" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A831" s="25">
+        <v>5374</v>
+      </c>
+      <c r="B831" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C831" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D831" s="13"/>
+      <c r="E831" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F831" s="15" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G831" s="16"/>
+      <c r="H831" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I831" s="0"/>
+    </row>
+    <row r="832" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A832" s="25">
+        <v>5375</v>
+      </c>
+      <c r="B832" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C832" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D832" s="13"/>
+      <c r="E832" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F832" s="17"/>
+      <c r="G832" s="18"/>
+      <c r="H832" s="14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I832" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="807">
+  <mergeCells count="833">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="F2:G2"/>
@@ -30421,6 +31319,32 @@
     <mergeCell ref="F804:G804"/>
     <mergeCell ref="F805:G805"/>
     <mergeCell ref="F806:G806"/>
+    <mergeCell ref="F807:G807"/>
+    <mergeCell ref="F808:G808"/>
+    <mergeCell ref="F809:G809"/>
+    <mergeCell ref="F810:G810"/>
+    <mergeCell ref="F811:G811"/>
+    <mergeCell ref="F812:G812"/>
+    <mergeCell ref="F813:G813"/>
+    <mergeCell ref="F814:G814"/>
+    <mergeCell ref="F815:G815"/>
+    <mergeCell ref="F816:G816"/>
+    <mergeCell ref="F817:G817"/>
+    <mergeCell ref="F818:G818"/>
+    <mergeCell ref="F819:G819"/>
+    <mergeCell ref="F820:G820"/>
+    <mergeCell ref="F821:G821"/>
+    <mergeCell ref="F822:G822"/>
+    <mergeCell ref="F823:G823"/>
+    <mergeCell ref="F824:G824"/>
+    <mergeCell ref="F825:G825"/>
+    <mergeCell ref="F826:G826"/>
+    <mergeCell ref="F827:G827"/>
+    <mergeCell ref="F828:G828"/>
+    <mergeCell ref="F829:G829"/>
+    <mergeCell ref="F830:G830"/>
+    <mergeCell ref="F831:G831"/>
+    <mergeCell ref="F832:G832"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work/23_aichi2.xlsx
+++ b/work/23_aichi2.xlsx
@@ -33,7 +33,7 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">令和2年10月1日現在</t>
+      <t xml:space="preserve">令和2年10月2日現在</t>
     </r>
   </si>
   <si>
@@ -624,6 +624,336 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">名古屋市発表2914</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">10月2日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">小牧市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5378と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1973</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5385と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊橋市発表77</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊橋市発表78</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">60代女性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5349と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2915</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2916</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2917</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5343と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2918</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5313と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2919</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5291と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2920</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5341と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2921</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2922</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2923</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2924</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2925</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20代男性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5366と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2926</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2927</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">30代男性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2928</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5219と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2929</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2930</t>
     </r>
   </si>
 </sst>
@@ -1055,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1518,6 +1848,391 @@
         <v>60</v>
       </c>
     </row>
+    <row r="23" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A23" s="8">
+        <v>5397</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A24" s="8">
+        <v>5398</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A25" s="8">
+        <v>5399</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A26" s="8">
+        <v>5400</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A27" s="8">
+        <v>5401</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A28" s="8">
+        <v>5402</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A29" s="8">
+        <v>5403</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A30" s="8">
+        <v>5404</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A31" s="8">
+        <v>5405</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A32" s="8">
+        <v>5406</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A33" s="8">
+        <v>5407</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A34" s="8">
+        <v>5408</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A35" s="8">
+        <v>5409</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A36" s="8">
+        <v>5410</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A37" s="8">
+        <v>5411</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A38" s="8">
+        <v>5412</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A39" s="8">
+        <v>5413</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A40" s="8">
+        <v>5414</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="21.00" customHeight="1">
+      <c r="A41" s="8">
+        <v>5415</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work/23_aichi2.xlsx
+++ b/work/23_aichi2.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -33,7 +32,7 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">令和2年10月2日現在</t>
+      <t xml:space="preserve">令和2年10月3日現在</t>
     </r>
   </si>
   <si>
@@ -954,6 +953,276 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">名古屋市発表2930</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">10月3日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一宮市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1974</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1975</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">弥富市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5376と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1976</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">あま市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1977</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">神奈川県</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5138と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1978</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">刈谷市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本県発表1979</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊田市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5358と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">豊田市発表233</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No.5295と接触</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2931</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2932</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2933</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2934</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2935</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2936</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2937</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2938</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名古屋市発表2939</t>
     </r>
   </si>
 </sst>
@@ -999,7 +1268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1022,11 +1291,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1051,6 +1346,12 @@
     <xf numFmtId="0" fillId="2" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="5" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fillId="2" borderId="2" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="2" borderId="3" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1065,6 +1366,21 @@
     </xf>
     <xf numFmtId="0" fillId="0" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="0" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="0" borderId="3" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="0" borderId="2" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="0" borderId="3" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,32 +1676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="1" width="89.555556"/>
-    <col min="2" max="2" customWidth="1" width="27.555556"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="35.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,844 +1687,1352 @@
     <col min="3" max="3" customWidth="1" width="16.666667"/>
     <col min="4" max="4" customWidth="1" width="10.666667"/>
     <col min="5" max="5" customWidth="1" width="18.888889"/>
-    <col min="6" max="6" customWidth="1" width="25.333333"/>
-    <col min="7" max="7" customWidth="1" width="20.888889"/>
+    <col min="6" max="6" customWidth="1" width="21.111111"/>
+    <col min="7" max="7" customWidth="1" width="4"/>
+    <col min="8" max="8" customWidth="1" width="20.888889"/>
+    <col min="9" max="9" customWidth="1" width="2.666667"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="35.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A2" s="8">
+      <c r="I2" s="0"/>
+    </row>
+    <row r="3" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A3" s="10">
         <v>5376</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A3" s="8">
+      <c r="I3" s="0"/>
+    </row>
+    <row r="4" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A4" s="10">
         <v>5377</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A4" s="8">
+      <c r="I4" s="0"/>
+    </row>
+    <row r="5" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A5" s="10">
         <v>5378</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A5" s="8">
+      <c r="I5" s="0"/>
+    </row>
+    <row r="6" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A6" s="10">
         <v>5379</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A6" s="8">
+      <c r="I6" s="0"/>
+    </row>
+    <row r="7" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A7" s="10">
         <v>5380</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A7" s="8">
+      <c r="I7" s="0"/>
+    </row>
+    <row r="8" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A8" s="10">
         <v>5381</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A8" s="8">
+      <c r="I8" s="0"/>
+    </row>
+    <row r="9" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A9" s="10">
         <v>5382</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A9" s="8">
+      <c r="I9" s="0"/>
+    </row>
+    <row r="10" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A10" s="10">
         <v>5383</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A10" s="8">
+      <c r="I10" s="0"/>
+    </row>
+    <row r="11" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A11" s="10">
         <v>5384</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A11" s="8">
+      <c r="I11" s="0"/>
+    </row>
+    <row r="12" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A12" s="10">
         <v>5385</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A12" s="8">
+      <c r="I12" s="0"/>
+    </row>
+    <row r="13" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A13" s="10">
         <v>5386</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G13" s="18"/>
+      <c r="H13" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A13" s="8">
+      <c r="I13" s="0"/>
+    </row>
+    <row r="14" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A14" s="10">
         <v>5387</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A14" s="8">
+      <c r="I14" s="0"/>
+    </row>
+    <row r="15" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A15" s="10">
         <v>5388</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A15" s="8">
+      <c r="I15" s="0"/>
+    </row>
+    <row r="16" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A16" s="10">
         <v>5389</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A16" s="8">
+      <c r="I16" s="0"/>
+    </row>
+    <row r="17" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A17" s="10">
         <v>5390</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A17" s="8">
+      <c r="I17" s="0"/>
+    </row>
+    <row r="18" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A18" s="10">
         <v>5391</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A18" s="8">
+      <c r="I18" s="0"/>
+    </row>
+    <row r="19" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A19" s="10">
         <v>5392</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A19" s="8">
+      <c r="I19" s="0"/>
+    </row>
+    <row r="20" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A20" s="10">
         <v>5393</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A20" s="8">
+      <c r="I20" s="0"/>
+    </row>
+    <row r="21" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A21" s="10">
         <v>5394</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A21" s="8">
+      <c r="I21" s="0"/>
+    </row>
+    <row r="22" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A22" s="10">
         <v>5395</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="12" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G22" s="18"/>
+      <c r="H22" s="14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A22" s="8">
+      <c r="I22" s="0"/>
+    </row>
+    <row r="23" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A23" s="10">
         <v>5396</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A23" s="8">
+      <c r="I23" s="0"/>
+    </row>
+    <row r="24" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A24" s="10">
         <v>5397</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F24" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G24" s="18"/>
+      <c r="H24" s="14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A24" s="8">
+      <c r="I24" s="0"/>
+    </row>
+    <row r="25" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A25" s="10">
         <v>5398</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A25" s="8">
+      <c r="I25" s="0"/>
+    </row>
+    <row r="26" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A26" s="10">
         <v>5399</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12" t="s">
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A26" s="8">
+      <c r="I26" s="0"/>
+    </row>
+    <row r="27" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A27" s="10">
         <v>5400</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G27" s="18"/>
+      <c r="H27" s="14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A27" s="8">
+      <c r="I27" s="0"/>
+    </row>
+    <row r="28" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A28" s="10">
         <v>5401</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A28" s="8">
+      <c r="I28" s="0"/>
+    </row>
+    <row r="29" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A29" s="10">
         <v>5402</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A29" s="8">
+      <c r="I29" s="0"/>
+    </row>
+    <row r="30" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A30" s="10">
         <v>5403</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A30" s="8">
+      <c r="I30" s="0"/>
+    </row>
+    <row r="31" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A31" s="10">
         <v>5404</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G31" s="18"/>
+      <c r="H31" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A31" s="8">
+      <c r="I31" s="0"/>
+    </row>
+    <row r="32" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A32" s="10">
         <v>5405</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G32" s="18"/>
+      <c r="H32" s="14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A32" s="8">
+      <c r="I32" s="0"/>
+    </row>
+    <row r="33" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A33" s="10">
         <v>5406</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B33" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G33" s="18"/>
+      <c r="H33" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A33" s="8">
+      <c r="I33" s="0"/>
+    </row>
+    <row r="34" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A34" s="10">
         <v>5407</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B34" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G34" s="18"/>
+      <c r="H34" s="14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A34" s="8">
+      <c r="I34" s="0"/>
+    </row>
+    <row r="35" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A35" s="10">
         <v>5408</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="12" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G35" s="18"/>
+      <c r="H35" s="14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A35" s="8">
+      <c r="I35" s="0"/>
+    </row>
+    <row r="36" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A36" s="10">
         <v>5409</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B36" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="12" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G36" s="18"/>
+      <c r="H36" s="14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A36" s="8">
+      <c r="I36" s="0"/>
+    </row>
+    <row r="37" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A37" s="10">
         <v>5410</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A37" s="8">
+      <c r="I37" s="0"/>
+    </row>
+    <row r="38" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A38" s="10">
         <v>5411</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B38" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G38" s="18"/>
+      <c r="H38" s="14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A38" s="8">
+      <c r="I38" s="0"/>
+    </row>
+    <row r="39" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A39" s="10">
         <v>5412</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B39" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A39" s="8">
+      <c r="I39" s="0"/>
+    </row>
+    <row r="40" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A40" s="10">
         <v>5413</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B40" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A40" s="8">
+      <c r="I40" s="0"/>
+    </row>
+    <row r="41" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A41" s="10">
         <v>5414</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B41" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="12" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G41" s="18"/>
+      <c r="H41" s="14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A41" s="8">
+      <c r="I41" s="0"/>
+    </row>
+    <row r="42" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A42" s="10">
         <v>5415</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B42" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12" t="s">
+      <c r="D42" s="13"/>
+      <c r="E42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="14" t="s">
         <v>93</v>
       </c>
+      <c r="I42" s="0"/>
+    </row>
+    <row r="43" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A43" s="10">
+        <v>5416</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" s="0"/>
+    </row>
+    <row r="44" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A44" s="10">
+        <v>5417</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="0"/>
+    </row>
+    <row r="45" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A45" s="10">
+        <v>5418</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="0"/>
+    </row>
+    <row r="46" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A46" s="19">
+        <v>5419</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I46" s="0"/>
+    </row>
+    <row r="47" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A47" s="19">
+        <v>5420</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47" s="0"/>
+    </row>
+    <row r="48" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A48" s="19">
+        <v>5421</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48" s="0"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A49" s="19">
+        <v>5422</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="18"/>
+      <c r="H49" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I49" s="0"/>
+    </row>
+    <row r="50" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A50" s="19">
+        <v>5423</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="18"/>
+      <c r="H50" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I50" s="0"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A51" s="19">
+        <v>5424</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="0"/>
+    </row>
+    <row r="52" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A52" s="19">
+        <v>5425</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I52" s="0"/>
+    </row>
+    <row r="53" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A53" s="19">
+        <v>5426</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I53" s="0"/>
+    </row>
+    <row r="54" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A54" s="19">
+        <v>5427</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" s="0"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A55" s="19">
+        <v>5428</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I55" s="0"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A56" s="19">
+        <v>5429</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I56" s="0"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A57" s="19">
+        <v>5430</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" s="0"/>
+    </row>
+    <row r="58" spans="1:9" ht="21.00" customHeight="1">
+      <c r="A58" s="19">
+        <v>5431</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I58" s="0"/>
     </row>
   </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>